--- a/Speedy Barcodes 22June.xlsx
+++ b/Speedy Barcodes 22June.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zayed\Downloads\Catalogs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BBF9B27-1C87-4C23-8BE1-4A3C2981FC76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1996B1-72A1-40AF-8D45-4D97982CAC10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,6 +32,7 @@
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve"> :
@@ -47,6 +48,7 @@
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve"> :
@@ -62,6 +64,7 @@
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve"> :
@@ -77,6 +80,7 @@
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve"> :
@@ -92,6 +96,7 @@
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve"> :
@@ -105,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="633">
   <si>
     <t>UPC-12</t>
   </si>
@@ -1986,6 +1991,24 @@
   </si>
   <si>
     <t>HG-FBA</t>
+  </si>
+  <si>
+    <t>USBC Cable</t>
+  </si>
+  <si>
+    <t>UC</t>
+  </si>
+  <si>
+    <t>Metal Keyboard</t>
+  </si>
+  <si>
+    <t>MK</t>
+  </si>
+  <si>
+    <t>Feather Mouse</t>
+  </si>
+  <si>
+    <t>MF</t>
   </si>
 </sst>
 </file>
@@ -1998,7 +2021,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;AED&quot;* #,##0.00_-;\-&quot;AED&quot;* #,##0.00_-;_-&quot;AED&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2022,16 +2045,25 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2416,18 +2448,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="H98" sqref="H98"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" customWidth="1"/>
+    <col min="2" max="2" width="45.42578125" customWidth="1"/>
     <col min="3" max="11" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="12.75" customHeight="1">
+    <row r="1" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2440,7 +2472,7 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="12.75" customHeight="1">
+    <row r="2" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2451,7 +2483,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="12.75" customHeight="1">
+    <row r="3" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2462,7 +2494,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="12.75" customHeight="1">
+    <row r="4" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -2473,7 +2505,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" ht="12.75" customHeight="1">
+    <row r="5" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -2484,7 +2516,7 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" ht="12.75" customHeight="1">
+    <row r="6" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -2495,7 +2527,7 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" ht="12.75" customHeight="1">
+    <row r="7" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -2506,7 +2538,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" ht="12.75" customHeight="1">
+    <row r="8" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -2517,7 +2549,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" ht="12.75" customHeight="1">
+    <row r="9" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -2530,7 +2562,7 @@
       </c>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" ht="12.75" customHeight="1">
+    <row r="10" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -2541,7 +2573,7 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" ht="12.75" customHeight="1">
+    <row r="11" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -2552,7 +2584,7 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" ht="12.75" customHeight="1">
+    <row r="12" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -2563,7 +2595,7 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" ht="12.75" customHeight="1">
+    <row r="13" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -2574,7 +2606,7 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" ht="12.75" customHeight="1">
+    <row r="14" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -2585,7 +2617,7 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" ht="12.75" customHeight="1">
+    <row r="15" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -2596,7 +2628,7 @@
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" ht="12.75" customHeight="1">
+    <row r="16" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
@@ -2607,7 +2639,7 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" ht="12.75" customHeight="1">
+    <row r="17" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
@@ -2618,7 +2650,7 @@
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" ht="12.75" customHeight="1">
+    <row r="18" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
@@ -2629,7 +2661,7 @@
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" ht="12.75" customHeight="1">
+    <row r="19" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
@@ -2640,7 +2672,7 @@
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" ht="12.75" customHeight="1">
+    <row r="20" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
@@ -2651,7 +2683,7 @@
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5" ht="12.75" customHeight="1">
+    <row r="21" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
@@ -2662,7 +2694,7 @@
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" ht="12.75" customHeight="1">
+    <row r="22" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
@@ -2673,7 +2705,7 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5" ht="12.75" customHeight="1">
+    <row r="23" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
@@ -2684,7 +2716,7 @@
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5" ht="12.75" customHeight="1">
+    <row r="24" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
@@ -2695,7 +2727,7 @@
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" ht="12.75" customHeight="1">
+    <row r="25" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>48</v>
       </c>
@@ -2706,7 +2738,7 @@
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:5" ht="12.75" customHeight="1">
+    <row r="26" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
@@ -2717,7 +2749,7 @@
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:5" ht="12.75" customHeight="1">
+    <row r="27" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>52</v>
       </c>
@@ -2728,7 +2760,7 @@
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:5" ht="12.75" customHeight="1">
+    <row r="28" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>54</v>
       </c>
@@ -2739,7 +2771,7 @@
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:5" ht="12.75" customHeight="1">
+    <row r="29" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>56</v>
       </c>
@@ -2750,7 +2782,7 @@
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5" ht="12.75" customHeight="1">
+    <row r="30" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
@@ -2761,7 +2793,7 @@
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:5" ht="12.75" customHeight="1">
+    <row r="31" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>60</v>
       </c>
@@ -2772,7 +2804,7 @@
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:5" ht="12.75" customHeight="1">
+    <row r="32" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>62</v>
       </c>
@@ -2783,7 +2815,7 @@
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="1:5" ht="12.75" customHeight="1">
+    <row r="33" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>64</v>
       </c>
@@ -2794,7 +2826,7 @@
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="1:5" ht="12.75" customHeight="1">
+    <row r="34" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
@@ -2805,7 +2837,7 @@
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="1:5" ht="12.75" customHeight="1">
+    <row r="35" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>68</v>
       </c>
@@ -2816,7 +2848,7 @@
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="1:5" ht="12.75" customHeight="1">
+    <row r="36" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>70</v>
       </c>
@@ -2827,7 +2859,7 @@
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="1:5" ht="12.75" customHeight="1">
+    <row r="37" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>72</v>
       </c>
@@ -2838,7 +2870,7 @@
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:5" ht="12.75" customHeight="1">
+    <row r="38" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>74</v>
       </c>
@@ -2849,7 +2881,7 @@
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="1:5" ht="12.75" customHeight="1">
+    <row r="39" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>76</v>
       </c>
@@ -2860,7 +2892,7 @@
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="1:5" ht="12.75" customHeight="1">
+    <row r="40" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>78</v>
       </c>
@@ -2871,7 +2903,7 @@
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="1:5" ht="12.75" customHeight="1">
+    <row r="41" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>80</v>
       </c>
@@ -2884,7 +2916,7 @@
       </c>
       <c r="E41" s="3"/>
     </row>
-    <row r="42" spans="1:5" ht="12.75" customHeight="1">
+    <row r="42" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>83</v>
       </c>
@@ -2897,7 +2929,7 @@
       </c>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="1:5" ht="12.75" customHeight="1">
+    <row r="43" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>86</v>
       </c>
@@ -2910,7 +2942,7 @@
       </c>
       <c r="E43" s="3"/>
     </row>
-    <row r="44" spans="1:5" ht="12.75" customHeight="1">
+    <row r="44" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>88</v>
       </c>
@@ -2923,7 +2955,7 @@
       </c>
       <c r="E44" s="3"/>
     </row>
-    <row r="45" spans="1:5" ht="12.75" customHeight="1">
+    <row r="45" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>90</v>
       </c>
@@ -2936,7 +2968,7 @@
       </c>
       <c r="E45" s="3"/>
     </row>
-    <row r="46" spans="1:5" ht="12.75" customHeight="1">
+    <row r="46" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>92</v>
       </c>
@@ -2947,7 +2979,7 @@
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
     </row>
-    <row r="47" spans="1:5" ht="12.75" customHeight="1">
+    <row r="47" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>94</v>
       </c>
@@ -2958,7 +2990,7 @@
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
     </row>
-    <row r="48" spans="1:5" ht="12.75" customHeight="1">
+    <row r="48" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>96</v>
       </c>
@@ -2969,7 +3001,7 @@
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
     </row>
-    <row r="49" spans="1:6" ht="12.75" customHeight="1">
+    <row r="49" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>98</v>
       </c>
@@ -2980,7 +3012,7 @@
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
     </row>
-    <row r="50" spans="1:6" ht="12.75" customHeight="1">
+    <row r="50" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>100</v>
       </c>
@@ -2991,7 +3023,7 @@
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
     </row>
-    <row r="51" spans="1:6" ht="12.75" customHeight="1">
+    <row r="51" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>102</v>
       </c>
@@ -3004,7 +3036,7 @@
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
     </row>
-    <row r="52" spans="1:6" ht="12.75" customHeight="1">
+    <row r="52" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>105</v>
       </c>
@@ -3017,7 +3049,7 @@
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
     </row>
-    <row r="53" spans="1:6" ht="12.75" customHeight="1">
+    <row r="53" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>107</v>
       </c>
@@ -3030,7 +3062,7 @@
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
     </row>
-    <row r="54" spans="1:6" ht="12.75" customHeight="1">
+    <row r="54" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>109</v>
       </c>
@@ -3043,7 +3075,7 @@
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
     </row>
-    <row r="55" spans="1:6" ht="12.75" customHeight="1">
+    <row r="55" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>111</v>
       </c>
@@ -3056,7 +3088,7 @@
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
     </row>
-    <row r="56" spans="1:6" ht="12.75" customHeight="1">
+    <row r="56" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>113</v>
       </c>
@@ -3069,7 +3101,7 @@
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
     </row>
-    <row r="57" spans="1:6" ht="12.75" customHeight="1">
+    <row r="57" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>115</v>
       </c>
@@ -3082,7 +3114,7 @@
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
     </row>
-    <row r="58" spans="1:6" ht="12.75" customHeight="1">
+    <row r="58" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>117</v>
       </c>
@@ -3095,7 +3127,7 @@
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
     </row>
-    <row r="59" spans="1:6" ht="12.75" customHeight="1">
+    <row r="59" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>119</v>
       </c>
@@ -3108,7 +3140,7 @@
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
     </row>
-    <row r="60" spans="1:6" ht="12.75" customHeight="1">
+    <row r="60" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>121</v>
       </c>
@@ -3121,7 +3153,7 @@
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
     </row>
-    <row r="61" spans="1:6" ht="12.75" customHeight="1">
+    <row r="61" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>123</v>
       </c>
@@ -3135,7 +3167,7 @@
       <c r="E61" s="1"/>
       <c r="F61" s="3"/>
     </row>
-    <row r="62" spans="1:6" ht="12.75" customHeight="1">
+    <row r="62" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>125</v>
       </c>
@@ -3149,7 +3181,7 @@
       <c r="E62" s="1"/>
       <c r="F62" s="3"/>
     </row>
-    <row r="63" spans="1:6" ht="12.75" customHeight="1">
+    <row r="63" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>127</v>
       </c>
@@ -3163,7 +3195,7 @@
       <c r="E63" s="1"/>
       <c r="F63" s="3"/>
     </row>
-    <row r="64" spans="1:6" ht="12.75" customHeight="1">
+    <row r="64" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>129</v>
       </c>
@@ -3177,7 +3209,7 @@
       <c r="E64" s="1"/>
       <c r="F64" s="3"/>
     </row>
-    <row r="65" spans="1:6" ht="12.75" customHeight="1">
+    <row r="65" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>131</v>
       </c>
@@ -3191,7 +3223,7 @@
       <c r="E65" s="6"/>
       <c r="F65" s="3"/>
     </row>
-    <row r="66" spans="1:6" ht="12.75" customHeight="1">
+    <row r="66" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>133</v>
       </c>
@@ -3205,7 +3237,7 @@
       <c r="E66" s="6"/>
       <c r="F66" s="3"/>
     </row>
-    <row r="67" spans="1:6" ht="12.75" customHeight="1">
+    <row r="67" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>135</v>
       </c>
@@ -3219,7 +3251,7 @@
       <c r="E67" s="6"/>
       <c r="F67" s="3"/>
     </row>
-    <row r="68" spans="1:6" ht="12.75" customHeight="1">
+    <row r="68" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>137</v>
       </c>
@@ -3233,7 +3265,7 @@
       <c r="E68" s="6"/>
       <c r="F68" s="3"/>
     </row>
-    <row r="69" spans="1:6" ht="12.75" customHeight="1">
+    <row r="69" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>139</v>
       </c>
@@ -3247,7 +3279,7 @@
       <c r="E69" s="6"/>
       <c r="F69" s="3"/>
     </row>
-    <row r="70" spans="1:6" ht="12.75" customHeight="1">
+    <row r="70" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>141</v>
       </c>
@@ -3260,7 +3292,7 @@
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
     </row>
-    <row r="71" spans="1:6" ht="12.75" customHeight="1">
+    <row r="71" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>143</v>
       </c>
@@ -3271,7 +3303,7 @@
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
     </row>
-    <row r="72" spans="1:6" ht="12.75" customHeight="1">
+    <row r="72" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>145</v>
       </c>
@@ -3282,7 +3314,7 @@
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
     </row>
-    <row r="73" spans="1:6" ht="12.75" customHeight="1">
+    <row r="73" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>147</v>
       </c>
@@ -3293,7 +3325,7 @@
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
     </row>
-    <row r="74" spans="1:6" ht="12.75" customHeight="1">
+    <row r="74" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>149</v>
       </c>
@@ -3304,7 +3336,7 @@
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
     </row>
-    <row r="75" spans="1:6" ht="12.75" customHeight="1">
+    <row r="75" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>151</v>
       </c>
@@ -3315,7 +3347,7 @@
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
     </row>
-    <row r="76" spans="1:6" ht="12.75" customHeight="1">
+    <row r="76" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>153</v>
       </c>
@@ -3328,7 +3360,7 @@
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
     </row>
-    <row r="77" spans="1:6" ht="12.75" customHeight="1">
+    <row r="77" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>155</v>
       </c>
@@ -3339,7 +3371,7 @@
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
     </row>
-    <row r="78" spans="1:6" ht="12.75" customHeight="1">
+    <row r="78" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>157</v>
       </c>
@@ -3348,7 +3380,7 @@
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
     </row>
-    <row r="79" spans="1:6" ht="12.75" customHeight="1">
+    <row r="79" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>158</v>
       </c>
@@ -3361,7 +3393,7 @@
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
     </row>
-    <row r="80" spans="1:6" ht="12.75" customHeight="1">
+    <row r="80" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>159</v>
       </c>
@@ -3374,7 +3406,7 @@
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
     </row>
-    <row r="81" spans="1:5" ht="12.75" customHeight="1">
+    <row r="81" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>160</v>
       </c>
@@ -3387,7 +3419,7 @@
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
     </row>
-    <row r="82" spans="1:5" ht="12.75" customHeight="1">
+    <row r="82" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>161</v>
       </c>
@@ -3404,7 +3436,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="12.75" customHeight="1">
+    <row r="83" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>162</v>
       </c>
@@ -3412,7 +3444,7 @@
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
     </row>
-    <row r="84" spans="1:5" ht="12.75" customHeight="1">
+    <row r="84" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>163</v>
       </c>
@@ -3425,7 +3457,7 @@
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
     </row>
-    <row r="85" spans="1:5" ht="12.75" customHeight="1">
+    <row r="85" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>164</v>
       </c>
@@ -3438,7 +3470,7 @@
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
     </row>
-    <row r="86" spans="1:5" ht="12.75" customHeight="1">
+    <row r="86" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>165</v>
       </c>
@@ -3451,7 +3483,7 @@
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
     </row>
-    <row r="87" spans="1:5" ht="12.75" customHeight="1">
+    <row r="87" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>166</v>
       </c>
@@ -3464,7 +3496,7 @@
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
     </row>
-    <row r="88" spans="1:5" ht="12.75" customHeight="1">
+    <row r="88" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>167</v>
       </c>
@@ -3477,7 +3509,7 @@
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
     </row>
-    <row r="89" spans="1:5" ht="12.75" customHeight="1">
+    <row r="89" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>168</v>
       </c>
@@ -3490,7 +3522,7 @@
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
     </row>
-    <row r="90" spans="1:5" ht="12.75" customHeight="1">
+    <row r="90" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>169</v>
       </c>
@@ -3503,7 +3535,7 @@
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
     </row>
-    <row r="91" spans="1:5" ht="12.75" customHeight="1">
+    <row r="91" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>170</v>
       </c>
@@ -3516,7 +3548,7 @@
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
     </row>
-    <row r="92" spans="1:5" ht="12.75" customHeight="1">
+    <row r="92" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>171</v>
       </c>
@@ -3529,7 +3561,7 @@
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
     </row>
-    <row r="93" spans="1:5" ht="12.75" customHeight="1">
+    <row r="93" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>172</v>
       </c>
@@ -3542,7 +3574,7 @@
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
     </row>
-    <row r="94" spans="1:5" ht="12.75" customHeight="1">
+    <row r="94" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>173</v>
       </c>
@@ -3555,7 +3587,7 @@
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
     </row>
-    <row r="95" spans="1:5" ht="12.75" customHeight="1">
+    <row r="95" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>174</v>
       </c>
@@ -3568,7 +3600,7 @@
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
     </row>
-    <row r="96" spans="1:5" ht="12.75" customHeight="1">
+    <row r="96" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>175</v>
       </c>
@@ -3581,7 +3613,7 @@
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
     </row>
-    <row r="97" spans="1:5" ht="12.75" customHeight="1">
+    <row r="97" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>176</v>
       </c>
@@ -3596,25 +3628,33 @@
       </c>
       <c r="E97" s="3"/>
     </row>
-    <row r="98" spans="1:5" ht="12.75" customHeight="1">
+    <row r="98" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B98" s="2"/>
-      <c r="C98" s="3"/>
+      <c r="B98" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>630</v>
+      </c>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
     </row>
-    <row r="99" spans="1:5" ht="12.75" customHeight="1">
+    <row r="99" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B99" s="2"/>
-      <c r="C99" s="3"/>
+      <c r="B99" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>632</v>
+      </c>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
     </row>
-    <row r="100" spans="1:5" ht="12.75" customHeight="1">
+    <row r="100" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>179</v>
       </c>
@@ -3627,7 +3667,7 @@
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
     </row>
-    <row r="101" spans="1:5" ht="12.75" customHeight="1">
+    <row r="101" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>180</v>
       </c>
@@ -3640,16 +3680,20 @@
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
     </row>
-    <row r="102" spans="1:5" ht="12.75" customHeight="1">
+    <row r="102" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B102" s="2"/>
-      <c r="C102" s="3"/>
+      <c r="B102" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>628</v>
+      </c>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
     </row>
-    <row r="103" spans="1:5" ht="12.75" customHeight="1">
+    <row r="103" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>182</v>
       </c>
@@ -3658,7 +3702,7 @@
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
     </row>
-    <row r="104" spans="1:5" ht="12.75" customHeight="1">
+    <row r="104" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>183</v>
       </c>
@@ -3667,7 +3711,7 @@
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
     </row>
-    <row r="105" spans="1:5" ht="12.75" customHeight="1">
+    <row r="105" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>184</v>
       </c>
@@ -3676,7 +3720,7 @@
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
     </row>
-    <row r="106" spans="1:5" ht="12.75" customHeight="1">
+    <row r="106" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>185</v>
       </c>
@@ -3685,7 +3729,7 @@
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
     </row>
-    <row r="107" spans="1:5" ht="12.75" customHeight="1">
+    <row r="107" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>186</v>
       </c>
@@ -3694,7 +3738,7 @@
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
     </row>
-    <row r="108" spans="1:5" ht="12.75" customHeight="1">
+    <row r="108" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>187</v>
       </c>
@@ -3703,7 +3747,7 @@
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
     </row>
-    <row r="109" spans="1:5" ht="12.75" customHeight="1">
+    <row r="109" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>188</v>
       </c>
@@ -3712,7 +3756,7 @@
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
     </row>
-    <row r="110" spans="1:5" ht="12.75" customHeight="1">
+    <row r="110" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>189</v>
       </c>
@@ -3721,7 +3765,7 @@
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
     </row>
-    <row r="111" spans="1:5" ht="12.75" customHeight="1">
+    <row r="111" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>190</v>
       </c>
@@ -3730,7 +3774,7 @@
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
     </row>
-    <row r="112" spans="1:5" ht="12.75" customHeight="1">
+    <row r="112" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>191</v>
       </c>
@@ -3739,7 +3783,7 @@
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
     </row>
-    <row r="113" spans="1:5" ht="12.75" customHeight="1">
+    <row r="113" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>192</v>
       </c>
@@ -3748,7 +3792,7 @@
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
     </row>
-    <row r="114" spans="1:5" ht="12.75" customHeight="1">
+    <row r="114" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>193</v>
       </c>
@@ -3757,7 +3801,7 @@
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
     </row>
-    <row r="115" spans="1:5" ht="12.75" customHeight="1">
+    <row r="115" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>194</v>
       </c>
@@ -3766,7 +3810,7 @@
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
     </row>
-    <row r="116" spans="1:5" ht="12.75" customHeight="1">
+    <row r="116" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>195</v>
       </c>
@@ -3775,7 +3819,7 @@
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
     </row>
-    <row r="117" spans="1:5" ht="12.75" customHeight="1">
+    <row r="117" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>196</v>
       </c>
@@ -3784,7 +3828,7 @@
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
     </row>
-    <row r="118" spans="1:5" ht="12.75" customHeight="1">
+    <row r="118" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>197</v>
       </c>
@@ -3793,7 +3837,7 @@
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
     </row>
-    <row r="119" spans="1:5" ht="12.75" customHeight="1">
+    <row r="119" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>198</v>
       </c>
@@ -3802,7 +3846,7 @@
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
     </row>
-    <row r="120" spans="1:5" ht="12.75" customHeight="1">
+    <row r="120" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>199</v>
       </c>
@@ -3811,7 +3855,7 @@
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
     </row>
-    <row r="121" spans="1:5" ht="12.75" customHeight="1">
+    <row r="121" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>200</v>
       </c>
@@ -3820,7 +3864,7 @@
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
     </row>
-    <row r="122" spans="1:5" ht="12.75" customHeight="1">
+    <row r="122" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>201</v>
       </c>
@@ -3829,7 +3873,7 @@
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
     </row>
-    <row r="123" spans="1:5" ht="12.75" customHeight="1">
+    <row r="123" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>202</v>
       </c>
@@ -3838,7 +3882,7 @@
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
     </row>
-    <row r="124" spans="1:5" ht="12.75" customHeight="1">
+    <row r="124" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>203</v>
       </c>
@@ -3847,7 +3891,7 @@
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
     </row>
-    <row r="125" spans="1:5" ht="12.75" customHeight="1">
+    <row r="125" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>204</v>
       </c>
@@ -3856,7 +3900,7 @@
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
     </row>
-    <row r="126" spans="1:5" ht="12.75" customHeight="1">
+    <row r="126" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>205</v>
       </c>
@@ -3865,7 +3909,7 @@
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
     </row>
-    <row r="127" spans="1:5" ht="12.75" customHeight="1">
+    <row r="127" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>206</v>
       </c>
@@ -3874,7 +3918,7 @@
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
     </row>
-    <row r="128" spans="1:5" ht="12.75" customHeight="1">
+    <row r="128" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>207</v>
       </c>
@@ -3883,7 +3927,7 @@
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
     </row>
-    <row r="129" spans="1:5" ht="12.75" customHeight="1">
+    <row r="129" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>208</v>
       </c>
@@ -3892,7 +3936,7 @@
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
     </row>
-    <row r="130" spans="1:5" ht="12.75" customHeight="1">
+    <row r="130" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>209</v>
       </c>
@@ -3901,7 +3945,7 @@
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
     </row>
-    <row r="131" spans="1:5" ht="12.75" customHeight="1">
+    <row r="131" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>210</v>
       </c>
@@ -3910,7 +3954,7 @@
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
     </row>
-    <row r="132" spans="1:5" ht="12.75" customHeight="1">
+    <row r="132" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>211</v>
       </c>
@@ -3919,7 +3963,7 @@
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
     </row>
-    <row r="133" spans="1:5" ht="12.75" customHeight="1">
+    <row r="133" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>212</v>
       </c>
@@ -3928,7 +3972,7 @@
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
     </row>
-    <row r="134" spans="1:5" ht="12.75" customHeight="1">
+    <row r="134" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>213</v>
       </c>
@@ -3937,7 +3981,7 @@
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
     </row>
-    <row r="135" spans="1:5" ht="12.75" customHeight="1">
+    <row r="135" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>214</v>
       </c>
@@ -3946,7 +3990,7 @@
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
     </row>
-    <row r="136" spans="1:5" ht="12.75" customHeight="1">
+    <row r="136" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>215</v>
       </c>
@@ -3955,7 +3999,7 @@
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
     </row>
-    <row r="137" spans="1:5" ht="12.75" customHeight="1">
+    <row r="137" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>216</v>
       </c>
@@ -3964,7 +4008,7 @@
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
     </row>
-    <row r="138" spans="1:5" ht="12.75" customHeight="1">
+    <row r="138" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>217</v>
       </c>
@@ -3973,7 +4017,7 @@
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
     </row>
-    <row r="139" spans="1:5" ht="12.75" customHeight="1">
+    <row r="139" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>218</v>
       </c>
@@ -3982,7 +4026,7 @@
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
     </row>
-    <row r="140" spans="1:5" ht="12.75" customHeight="1">
+    <row r="140" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>219</v>
       </c>
@@ -3991,7 +4035,7 @@
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
     </row>
-    <row r="141" spans="1:5" ht="12.75" customHeight="1">
+    <row r="141" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>220</v>
       </c>
@@ -4000,7 +4044,7 @@
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
     </row>
-    <row r="142" spans="1:5" ht="12.75" customHeight="1">
+    <row r="142" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>221</v>
       </c>
@@ -4009,7 +4053,7 @@
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
     </row>
-    <row r="143" spans="1:5" ht="12.75" customHeight="1">
+    <row r="143" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>222</v>
       </c>
@@ -4018,7 +4062,7 @@
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
     </row>
-    <row r="144" spans="1:5" ht="12.75" customHeight="1">
+    <row r="144" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>223</v>
       </c>
@@ -4027,7 +4071,7 @@
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
     </row>
-    <row r="145" spans="1:5" ht="12.75" customHeight="1">
+    <row r="145" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>224</v>
       </c>
@@ -4036,7 +4080,7 @@
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
     </row>
-    <row r="146" spans="1:5" ht="12.75" customHeight="1">
+    <row r="146" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>225</v>
       </c>
@@ -4045,7 +4089,7 @@
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
     </row>
-    <row r="147" spans="1:5" ht="12.75" customHeight="1">
+    <row r="147" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>226</v>
       </c>
@@ -4054,7 +4098,7 @@
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
     </row>
-    <row r="148" spans="1:5" ht="12.75" customHeight="1">
+    <row r="148" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>227</v>
       </c>
@@ -4063,7 +4107,7 @@
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
     </row>
-    <row r="149" spans="1:5" ht="12.75" customHeight="1">
+    <row r="149" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>228</v>
       </c>
@@ -4072,7 +4116,7 @@
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
     </row>
-    <row r="150" spans="1:5" ht="12.75" customHeight="1">
+    <row r="150" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>229</v>
       </c>
@@ -4081,7 +4125,7 @@
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
     </row>
-    <row r="151" spans="1:5" ht="12.75" customHeight="1">
+    <row r="151" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>230</v>
       </c>
@@ -4090,7 +4134,7 @@
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
     </row>
-    <row r="152" spans="1:5" ht="12.75" customHeight="1">
+    <row r="152" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>231</v>
       </c>
@@ -4099,7 +4143,7 @@
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
     </row>
-    <row r="153" spans="1:5" ht="12.75" customHeight="1">
+    <row r="153" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>232</v>
       </c>
@@ -4108,7 +4152,7 @@
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
     </row>
-    <row r="154" spans="1:5" ht="12.75" customHeight="1">
+    <row r="154" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>233</v>
       </c>
@@ -4117,7 +4161,7 @@
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
     </row>
-    <row r="155" spans="1:5" ht="12.75" customHeight="1">
+    <row r="155" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>234</v>
       </c>
@@ -4126,7 +4170,7 @@
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
     </row>
-    <row r="156" spans="1:5" ht="12.75" customHeight="1">
+    <row r="156" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>235</v>
       </c>
@@ -4135,7 +4179,7 @@
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
     </row>
-    <row r="157" spans="1:5" ht="12.75" customHeight="1">
+    <row r="157" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>236</v>
       </c>
@@ -4144,7 +4188,7 @@
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
     </row>
-    <row r="158" spans="1:5" ht="12.75" customHeight="1">
+    <row r="158" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>237</v>
       </c>
@@ -4153,7 +4197,7 @@
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
     </row>
-    <row r="159" spans="1:5" ht="12.75" customHeight="1">
+    <row r="159" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>238</v>
       </c>
@@ -4162,7 +4206,7 @@
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
     </row>
-    <row r="160" spans="1:5" ht="12.75" customHeight="1">
+    <row r="160" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>239</v>
       </c>
@@ -4171,7 +4215,7 @@
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
     </row>
-    <row r="161" spans="1:5" ht="12.75" customHeight="1">
+    <row r="161" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>240</v>
       </c>
@@ -4180,7 +4224,7 @@
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
     </row>
-    <row r="162" spans="1:5" ht="12.75" customHeight="1">
+    <row r="162" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>241</v>
       </c>
@@ -4189,7 +4233,7 @@
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
     </row>
-    <row r="163" spans="1:5" ht="12.75" customHeight="1">
+    <row r="163" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>242</v>
       </c>
@@ -4198,7 +4242,7 @@
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
     </row>
-    <row r="164" spans="1:5" ht="12.75" customHeight="1">
+    <row r="164" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>243</v>
       </c>
@@ -4207,7 +4251,7 @@
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
     </row>
-    <row r="165" spans="1:5" ht="12.75" customHeight="1">
+    <row r="165" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>244</v>
       </c>
@@ -4216,7 +4260,7 @@
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
     </row>
-    <row r="166" spans="1:5" ht="12.75" customHeight="1">
+    <row r="166" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>245</v>
       </c>
@@ -4225,7 +4269,7 @@
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
     </row>
-    <row r="167" spans="1:5" ht="12.75" customHeight="1">
+    <row r="167" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>246</v>
       </c>
@@ -4234,7 +4278,7 @@
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
     </row>
-    <row r="168" spans="1:5" ht="12.75" customHeight="1">
+    <row r="168" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>247</v>
       </c>
@@ -4243,7 +4287,7 @@
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
     </row>
-    <row r="169" spans="1:5" ht="12.75" customHeight="1">
+    <row r="169" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>248</v>
       </c>
@@ -4252,7 +4296,7 @@
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
     </row>
-    <row r="170" spans="1:5" ht="12.75" customHeight="1">
+    <row r="170" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>249</v>
       </c>
@@ -4261,7 +4305,7 @@
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
     </row>
-    <row r="171" spans="1:5" ht="12.75" customHeight="1">
+    <row r="171" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>250</v>
       </c>
@@ -4270,7 +4314,7 @@
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
     </row>
-    <row r="172" spans="1:5" ht="12.75" customHeight="1">
+    <row r="172" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>251</v>
       </c>
@@ -4279,7 +4323,7 @@
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
     </row>
-    <row r="173" spans="1:5" ht="12.75" customHeight="1">
+    <row r="173" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>252</v>
       </c>
@@ -4288,7 +4332,7 @@
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
     </row>
-    <row r="174" spans="1:5" ht="12.75" customHeight="1">
+    <row r="174" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>253</v>
       </c>
@@ -4297,7 +4341,7 @@
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
     </row>
-    <row r="175" spans="1:5" ht="12.75" customHeight="1">
+    <row r="175" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>254</v>
       </c>
@@ -4306,7 +4350,7 @@
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
     </row>
-    <row r="176" spans="1:5" ht="12.75" customHeight="1">
+    <row r="176" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>255</v>
       </c>
@@ -4315,7 +4359,7 @@
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
     </row>
-    <row r="177" spans="1:5" ht="12.75" customHeight="1">
+    <row r="177" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>256</v>
       </c>
@@ -4324,7 +4368,7 @@
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
     </row>
-    <row r="178" spans="1:5" ht="12.75" customHeight="1">
+    <row r="178" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>257</v>
       </c>
@@ -4333,7 +4377,7 @@
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
     </row>
-    <row r="179" spans="1:5" ht="12.75" customHeight="1">
+    <row r="179" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>258</v>
       </c>
@@ -4342,7 +4386,7 @@
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
     </row>
-    <row r="180" spans="1:5" ht="12.75" customHeight="1">
+    <row r="180" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>259</v>
       </c>
@@ -4351,7 +4395,7 @@
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
     </row>
-    <row r="181" spans="1:5" ht="12.75" customHeight="1">
+    <row r="181" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>260</v>
       </c>
@@ -4360,7 +4404,7 @@
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
     </row>
-    <row r="182" spans="1:5" ht="12.75" customHeight="1">
+    <row r="182" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>261</v>
       </c>
@@ -4369,7 +4413,7 @@
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
     </row>
-    <row r="183" spans="1:5" ht="12.75" customHeight="1">
+    <row r="183" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>262</v>
       </c>
@@ -4378,7 +4422,7 @@
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
     </row>
-    <row r="184" spans="1:5" ht="12.75" customHeight="1">
+    <row r="184" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>263</v>
       </c>
@@ -4387,7 +4431,7 @@
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
     </row>
-    <row r="185" spans="1:5" ht="12.75" customHeight="1">
+    <row r="185" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>264</v>
       </c>
@@ -4396,7 +4440,7 @@
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
     </row>
-    <row r="186" spans="1:5" ht="12.75" customHeight="1">
+    <row r="186" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>265</v>
       </c>
@@ -4405,7 +4449,7 @@
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
     </row>
-    <row r="187" spans="1:5" ht="12.75" customHeight="1">
+    <row r="187" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>266</v>
       </c>
@@ -4414,7 +4458,7 @@
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
     </row>
-    <row r="188" spans="1:5" ht="12.75" customHeight="1">
+    <row r="188" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>267</v>
       </c>
@@ -4423,7 +4467,7 @@
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
     </row>
-    <row r="189" spans="1:5" ht="12.75" customHeight="1">
+    <row r="189" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>268</v>
       </c>
@@ -4432,7 +4476,7 @@
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
     </row>
-    <row r="190" spans="1:5" ht="12.75" customHeight="1">
+    <row r="190" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>269</v>
       </c>
@@ -4441,7 +4485,7 @@
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
     </row>
-    <row r="191" spans="1:5" ht="12.75" customHeight="1">
+    <row r="191" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>270</v>
       </c>
@@ -4450,7 +4494,7 @@
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
     </row>
-    <row r="192" spans="1:5" ht="12.75" customHeight="1">
+    <row r="192" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>271</v>
       </c>
@@ -4459,7 +4503,7 @@
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
     </row>
-    <row r="193" spans="1:5" ht="12.75" customHeight="1">
+    <row r="193" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>272</v>
       </c>
@@ -4468,7 +4512,7 @@
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
     </row>
-    <row r="194" spans="1:5" ht="12.75" customHeight="1">
+    <row r="194" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>273</v>
       </c>
@@ -4477,7 +4521,7 @@
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
     </row>
-    <row r="195" spans="1:5" ht="12.75" customHeight="1">
+    <row r="195" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>274</v>
       </c>
@@ -4486,7 +4530,7 @@
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
     </row>
-    <row r="196" spans="1:5" ht="12.75" customHeight="1">
+    <row r="196" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>275</v>
       </c>
@@ -4495,7 +4539,7 @@
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
     </row>
-    <row r="197" spans="1:5" ht="12.75" customHeight="1">
+    <row r="197" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>276</v>
       </c>
@@ -4504,7 +4548,7 @@
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
     </row>
-    <row r="198" spans="1:5" ht="12.75" customHeight="1">
+    <row r="198" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>277</v>
       </c>
@@ -4513,7 +4557,7 @@
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
     </row>
-    <row r="199" spans="1:5" ht="12.75" customHeight="1">
+    <row r="199" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>278</v>
       </c>
@@ -4522,7 +4566,7 @@
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
     </row>
-    <row r="200" spans="1:5" ht="12.75" customHeight="1">
+    <row r="200" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>279</v>
       </c>
@@ -4531,7 +4575,7 @@
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
     </row>
-    <row r="201" spans="1:5" ht="12.75" customHeight="1">
+    <row r="201" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>280</v>
       </c>
@@ -4540,7 +4584,7 @@
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
     </row>
-    <row r="202" spans="1:5" ht="12.75" customHeight="1">
+    <row r="202" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>281</v>
       </c>
@@ -4549,7 +4593,7 @@
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
     </row>
-    <row r="203" spans="1:5" ht="12.75" customHeight="1">
+    <row r="203" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>282</v>
       </c>
@@ -4558,7 +4602,7 @@
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
     </row>
-    <row r="204" spans="1:5" ht="12.75" customHeight="1">
+    <row r="204" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>283</v>
       </c>
@@ -4567,7 +4611,7 @@
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
     </row>
-    <row r="205" spans="1:5" ht="12.75" customHeight="1">
+    <row r="205" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>284</v>
       </c>
@@ -4576,7 +4620,7 @@
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
     </row>
-    <row r="206" spans="1:5" ht="12.75" customHeight="1">
+    <row r="206" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>285</v>
       </c>
@@ -4585,7 +4629,7 @@
       <c r="D206" s="3"/>
       <c r="E206" s="3"/>
     </row>
-    <row r="207" spans="1:5" ht="12.75" customHeight="1">
+    <row r="207" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>286</v>
       </c>
@@ -4594,7 +4638,7 @@
       <c r="D207" s="3"/>
       <c r="E207" s="3"/>
     </row>
-    <row r="208" spans="1:5" ht="12.75" customHeight="1">
+    <row r="208" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>287</v>
       </c>
@@ -4603,7 +4647,7 @@
       <c r="D208" s="3"/>
       <c r="E208" s="3"/>
     </row>
-    <row r="209" spans="1:5" ht="12.75" customHeight="1">
+    <row r="209" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>288</v>
       </c>
@@ -4612,7 +4656,7 @@
       <c r="D209" s="3"/>
       <c r="E209" s="3"/>
     </row>
-    <row r="210" spans="1:5" ht="12.75" customHeight="1">
+    <row r="210" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>289</v>
       </c>
@@ -4621,7 +4665,7 @@
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
     </row>
-    <row r="211" spans="1:5" ht="12.75" customHeight="1">
+    <row r="211" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>290</v>
       </c>
@@ -4630,7 +4674,7 @@
       <c r="D211" s="3"/>
       <c r="E211" s="3"/>
     </row>
-    <row r="212" spans="1:5" ht="12.75" customHeight="1">
+    <row r="212" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>291</v>
       </c>
@@ -4639,7 +4683,7 @@
       <c r="D212" s="3"/>
       <c r="E212" s="3"/>
     </row>
-    <row r="213" spans="1:5" ht="12.75" customHeight="1">
+    <row r="213" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>292</v>
       </c>
@@ -4648,7 +4692,7 @@
       <c r="D213" s="3"/>
       <c r="E213" s="3"/>
     </row>
-    <row r="214" spans="1:5" ht="12.75" customHeight="1">
+    <row r="214" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>293</v>
       </c>
@@ -4657,7 +4701,7 @@
       <c r="D214" s="3"/>
       <c r="E214" s="3"/>
     </row>
-    <row r="215" spans="1:5" ht="12.75" customHeight="1">
+    <row r="215" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>294</v>
       </c>
@@ -4666,7 +4710,7 @@
       <c r="D215" s="3"/>
       <c r="E215" s="3"/>
     </row>
-    <row r="216" spans="1:5" ht="12.75" customHeight="1">
+    <row r="216" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>295</v>
       </c>
@@ -4675,7 +4719,7 @@
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
     </row>
-    <row r="217" spans="1:5" ht="12.75" customHeight="1">
+    <row r="217" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>296</v>
       </c>
@@ -4684,7 +4728,7 @@
       <c r="D217" s="3"/>
       <c r="E217" s="3"/>
     </row>
-    <row r="218" spans="1:5" ht="12.75" customHeight="1">
+    <row r="218" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>297</v>
       </c>
@@ -4693,7 +4737,7 @@
       <c r="D218" s="3"/>
       <c r="E218" s="3"/>
     </row>
-    <row r="219" spans="1:5" ht="12.75" customHeight="1">
+    <row r="219" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>298</v>
       </c>
@@ -4702,7 +4746,7 @@
       <c r="D219" s="3"/>
       <c r="E219" s="3"/>
     </row>
-    <row r="220" spans="1:5" ht="12.75" customHeight="1">
+    <row r="220" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>299</v>
       </c>
@@ -4711,7 +4755,7 @@
       <c r="D220" s="3"/>
       <c r="E220" s="3"/>
     </row>
-    <row r="221" spans="1:5" ht="12.75" customHeight="1">
+    <row r="221" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>300</v>
       </c>
@@ -4720,7 +4764,7 @@
       <c r="D221" s="3"/>
       <c r="E221" s="3"/>
     </row>
-    <row r="222" spans="1:5" ht="12.75" customHeight="1">
+    <row r="222" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>301</v>
       </c>
@@ -4729,7 +4773,7 @@
       <c r="D222" s="3"/>
       <c r="E222" s="3"/>
     </row>
-    <row r="223" spans="1:5" ht="12.75" customHeight="1">
+    <row r="223" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>302</v>
       </c>
@@ -4738,7 +4782,7 @@
       <c r="D223" s="3"/>
       <c r="E223" s="3"/>
     </row>
-    <row r="224" spans="1:5" ht="12.75" customHeight="1">
+    <row r="224" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>303</v>
       </c>
@@ -4747,7 +4791,7 @@
       <c r="D224" s="3"/>
       <c r="E224" s="3"/>
     </row>
-    <row r="225" spans="1:5" ht="12.75" customHeight="1">
+    <row r="225" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>304</v>
       </c>
@@ -4756,7 +4800,7 @@
       <c r="D225" s="3"/>
       <c r="E225" s="3"/>
     </row>
-    <row r="226" spans="1:5" ht="12.75" customHeight="1">
+    <row r="226" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>305</v>
       </c>
@@ -4765,7 +4809,7 @@
       <c r="D226" s="3"/>
       <c r="E226" s="3"/>
     </row>
-    <row r="227" spans="1:5" ht="12.75" customHeight="1">
+    <row r="227" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>306</v>
       </c>
@@ -4774,7 +4818,7 @@
       <c r="D227" s="3"/>
       <c r="E227" s="3"/>
     </row>
-    <row r="228" spans="1:5" ht="12.75" customHeight="1">
+    <row r="228" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>307</v>
       </c>
@@ -4783,7 +4827,7 @@
       <c r="D228" s="3"/>
       <c r="E228" s="3"/>
     </row>
-    <row r="229" spans="1:5" ht="12.75" customHeight="1">
+    <row r="229" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>308</v>
       </c>
@@ -4792,7 +4836,7 @@
       <c r="D229" s="3"/>
       <c r="E229" s="3"/>
     </row>
-    <row r="230" spans="1:5" ht="12.75" customHeight="1">
+    <row r="230" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>309</v>
       </c>
@@ -4801,7 +4845,7 @@
       <c r="D230" s="3"/>
       <c r="E230" s="3"/>
     </row>
-    <row r="231" spans="1:5" ht="12.75" customHeight="1">
+    <row r="231" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>310</v>
       </c>
@@ -4810,7 +4854,7 @@
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
     </row>
-    <row r="232" spans="1:5" ht="12.75" customHeight="1">
+    <row r="232" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>311</v>
       </c>
@@ -4819,7 +4863,7 @@
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
     </row>
-    <row r="233" spans="1:5" ht="12.75" customHeight="1">
+    <row r="233" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>312</v>
       </c>
@@ -4828,7 +4872,7 @@
       <c r="D233" s="3"/>
       <c r="E233" s="3"/>
     </row>
-    <row r="234" spans="1:5" ht="12.75" customHeight="1">
+    <row r="234" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>313</v>
       </c>
@@ -4837,7 +4881,7 @@
       <c r="D234" s="3"/>
       <c r="E234" s="3"/>
     </row>
-    <row r="235" spans="1:5" ht="12.75" customHeight="1">
+    <row r="235" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>314</v>
       </c>
@@ -4846,7 +4890,7 @@
       <c r="D235" s="3"/>
       <c r="E235" s="3"/>
     </row>
-    <row r="236" spans="1:5" ht="12.75" customHeight="1">
+    <row r="236" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>315</v>
       </c>
@@ -4855,7 +4899,7 @@
       <c r="D236" s="3"/>
       <c r="E236" s="3"/>
     </row>
-    <row r="237" spans="1:5" ht="12.75" customHeight="1">
+    <row r="237" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>316</v>
       </c>
@@ -4864,7 +4908,7 @@
       <c r="D237" s="3"/>
       <c r="E237" s="3"/>
     </row>
-    <row r="238" spans="1:5" ht="12.75" customHeight="1">
+    <row r="238" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>317</v>
       </c>
@@ -4873,7 +4917,7 @@
       <c r="D238" s="3"/>
       <c r="E238" s="3"/>
     </row>
-    <row r="239" spans="1:5" ht="12.75" customHeight="1">
+    <row r="239" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>318</v>
       </c>
@@ -4882,7 +4926,7 @@
       <c r="D239" s="3"/>
       <c r="E239" s="3"/>
     </row>
-    <row r="240" spans="1:5" ht="12.75" customHeight="1">
+    <row r="240" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>319</v>
       </c>
@@ -4891,7 +4935,7 @@
       <c r="D240" s="3"/>
       <c r="E240" s="3"/>
     </row>
-    <row r="241" spans="1:5" ht="12.75" customHeight="1">
+    <row r="241" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>320</v>
       </c>
@@ -4900,7 +4944,7 @@
       <c r="D241" s="3"/>
       <c r="E241" s="3"/>
     </row>
-    <row r="242" spans="1:5" ht="12.75" customHeight="1">
+    <row r="242" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>321</v>
       </c>
@@ -4909,7 +4953,7 @@
       <c r="D242" s="3"/>
       <c r="E242" s="3"/>
     </row>
-    <row r="243" spans="1:5" ht="12.75" customHeight="1">
+    <row r="243" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>322</v>
       </c>
@@ -4918,7 +4962,7 @@
       <c r="D243" s="3"/>
       <c r="E243" s="3"/>
     </row>
-    <row r="244" spans="1:5" ht="12.75" customHeight="1">
+    <row r="244" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>323</v>
       </c>
@@ -4927,7 +4971,7 @@
       <c r="D244" s="3"/>
       <c r="E244" s="3"/>
     </row>
-    <row r="245" spans="1:5" ht="12.75" customHeight="1">
+    <row r="245" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>324</v>
       </c>
@@ -4936,7 +4980,7 @@
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
     </row>
-    <row r="246" spans="1:5" ht="12.75" customHeight="1">
+    <row r="246" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>325</v>
       </c>
@@ -4945,7 +4989,7 @@
       <c r="D246" s="3"/>
       <c r="E246" s="3"/>
     </row>
-    <row r="247" spans="1:5" ht="12.75" customHeight="1">
+    <row r="247" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>326</v>
       </c>
@@ -4954,7 +4998,7 @@
       <c r="D247" s="3"/>
       <c r="E247" s="3"/>
     </row>
-    <row r="248" spans="1:5" ht="12.75" customHeight="1">
+    <row r="248" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>327</v>
       </c>
@@ -4963,7 +5007,7 @@
       <c r="D248" s="3"/>
       <c r="E248" s="3"/>
     </row>
-    <row r="249" spans="1:5" ht="12.75" customHeight="1">
+    <row r="249" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>328</v>
       </c>
@@ -4972,7 +5016,7 @@
       <c r="D249" s="3"/>
       <c r="E249" s="3"/>
     </row>
-    <row r="250" spans="1:5" ht="12.75" customHeight="1">
+    <row r="250" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>329</v>
       </c>
@@ -4981,7 +5025,7 @@
       <c r="D250" s="3"/>
       <c r="E250" s="3"/>
     </row>
-    <row r="251" spans="1:5" ht="12.75" customHeight="1">
+    <row r="251" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>330</v>
       </c>
@@ -4990,7 +5034,7 @@
       <c r="D251" s="3"/>
       <c r="E251" s="3"/>
     </row>
-    <row r="252" spans="1:5" ht="12.75" customHeight="1">
+    <row r="252" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>331</v>
       </c>
@@ -4999,7 +5043,7 @@
       <c r="D252" s="3"/>
       <c r="E252" s="3"/>
     </row>
-    <row r="253" spans="1:5" ht="12.75" customHeight="1">
+    <row r="253" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>332</v>
       </c>
@@ -5008,7 +5052,7 @@
       <c r="D253" s="3"/>
       <c r="E253" s="3"/>
     </row>
-    <row r="254" spans="1:5" ht="12.75" customHeight="1">
+    <row r="254" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>333</v>
       </c>
@@ -5017,7 +5061,7 @@
       <c r="D254" s="3"/>
       <c r="E254" s="3"/>
     </row>
-    <row r="255" spans="1:5" ht="12.75" customHeight="1">
+    <row r="255" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>334</v>
       </c>
@@ -5026,7 +5070,7 @@
       <c r="D255" s="3"/>
       <c r="E255" s="3"/>
     </row>
-    <row r="256" spans="1:5" ht="12.75" customHeight="1">
+    <row r="256" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>335</v>
       </c>
@@ -5035,7 +5079,7 @@
       <c r="D256" s="3"/>
       <c r="E256" s="3"/>
     </row>
-    <row r="257" spans="1:5" ht="12.75" customHeight="1">
+    <row r="257" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>336</v>
       </c>
@@ -5044,7 +5088,7 @@
       <c r="D257" s="3"/>
       <c r="E257" s="3"/>
     </row>
-    <row r="258" spans="1:5" ht="12.75" customHeight="1">
+    <row r="258" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>337</v>
       </c>
@@ -5053,7 +5097,7 @@
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
     </row>
-    <row r="259" spans="1:5" ht="12.75" customHeight="1">
+    <row r="259" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>338</v>
       </c>
@@ -5062,7 +5106,7 @@
       <c r="D259" s="3"/>
       <c r="E259" s="3"/>
     </row>
-    <row r="260" spans="1:5" ht="12.75" customHeight="1">
+    <row r="260" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>339</v>
       </c>
@@ -5071,7 +5115,7 @@
       <c r="D260" s="3"/>
       <c r="E260" s="3"/>
     </row>
-    <row r="261" spans="1:5" ht="12.75" customHeight="1">
+    <row r="261" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>340</v>
       </c>
@@ -5080,7 +5124,7 @@
       <c r="D261" s="3"/>
       <c r="E261" s="3"/>
     </row>
-    <row r="262" spans="1:5" ht="12.75" customHeight="1">
+    <row r="262" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>341</v>
       </c>
@@ -5089,7 +5133,7 @@
       <c r="D262" s="3"/>
       <c r="E262" s="3"/>
     </row>
-    <row r="263" spans="1:5" ht="12.75" customHeight="1">
+    <row r="263" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>342</v>
       </c>
@@ -5098,7 +5142,7 @@
       <c r="D263" s="3"/>
       <c r="E263" s="3"/>
     </row>
-    <row r="264" spans="1:5" ht="12.75" customHeight="1">
+    <row r="264" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>343</v>
       </c>
@@ -5107,7 +5151,7 @@
       <c r="D264" s="3"/>
       <c r="E264" s="3"/>
     </row>
-    <row r="265" spans="1:5" ht="12.75" customHeight="1">
+    <row r="265" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>344</v>
       </c>
@@ -5116,7 +5160,7 @@
       <c r="D265" s="3"/>
       <c r="E265" s="3"/>
     </row>
-    <row r="266" spans="1:5" ht="12.75" customHeight="1">
+    <row r="266" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>345</v>
       </c>
@@ -5125,7 +5169,7 @@
       <c r="D266" s="3"/>
       <c r="E266" s="3"/>
     </row>
-    <row r="267" spans="1:5" ht="12.75" customHeight="1">
+    <row r="267" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>346</v>
       </c>
@@ -5134,7 +5178,7 @@
       <c r="D267" s="3"/>
       <c r="E267" s="3"/>
     </row>
-    <row r="268" spans="1:5" ht="12.75" customHeight="1">
+    <row r="268" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>347</v>
       </c>
@@ -5143,7 +5187,7 @@
       <c r="D268" s="3"/>
       <c r="E268" s="3"/>
     </row>
-    <row r="269" spans="1:5" ht="12.75" customHeight="1">
+    <row r="269" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>348</v>
       </c>
@@ -5152,7 +5196,7 @@
       <c r="D269" s="3"/>
       <c r="E269" s="3"/>
     </row>
-    <row r="270" spans="1:5" ht="12.75" customHeight="1">
+    <row r="270" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>349</v>
       </c>
@@ -5161,7 +5205,7 @@
       <c r="D270" s="3"/>
       <c r="E270" s="3"/>
     </row>
-    <row r="271" spans="1:5" ht="12.75" customHeight="1">
+    <row r="271" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>350</v>
       </c>
@@ -5170,7 +5214,7 @@
       <c r="D271" s="3"/>
       <c r="E271" s="3"/>
     </row>
-    <row r="272" spans="1:5" ht="12.75" customHeight="1">
+    <row r="272" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>351</v>
       </c>
@@ -5179,7 +5223,7 @@
       <c r="D272" s="3"/>
       <c r="E272" s="3"/>
     </row>
-    <row r="273" spans="1:5" ht="12.75" customHeight="1">
+    <row r="273" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>352</v>
       </c>
@@ -5188,7 +5232,7 @@
       <c r="D273" s="3"/>
       <c r="E273" s="3"/>
     </row>
-    <row r="274" spans="1:5" ht="12.75" customHeight="1">
+    <row r="274" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>353</v>
       </c>
@@ -5197,7 +5241,7 @@
       <c r="D274" s="3"/>
       <c r="E274" s="3"/>
     </row>
-    <row r="275" spans="1:5" ht="12.75" customHeight="1">
+    <row r="275" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>354</v>
       </c>
@@ -5206,7 +5250,7 @@
       <c r="D275" s="3"/>
       <c r="E275" s="3"/>
     </row>
-    <row r="276" spans="1:5" ht="12.75" customHeight="1">
+    <row r="276" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>355</v>
       </c>
@@ -5215,7 +5259,7 @@
       <c r="D276" s="3"/>
       <c r="E276" s="3"/>
     </row>
-    <row r="277" spans="1:5" ht="12.75" customHeight="1">
+    <row r="277" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>356</v>
       </c>
@@ -5224,7 +5268,7 @@
       <c r="D277" s="3"/>
       <c r="E277" s="3"/>
     </row>
-    <row r="278" spans="1:5" ht="12.75" customHeight="1">
+    <row r="278" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>357</v>
       </c>
@@ -5233,7 +5277,7 @@
       <c r="D278" s="3"/>
       <c r="E278" s="3"/>
     </row>
-    <row r="279" spans="1:5" ht="12.75" customHeight="1">
+    <row r="279" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>358</v>
       </c>
@@ -5242,7 +5286,7 @@
       <c r="D279" s="3"/>
       <c r="E279" s="3"/>
     </row>
-    <row r="280" spans="1:5" ht="12.75" customHeight="1">
+    <row r="280" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>359</v>
       </c>
@@ -5251,7 +5295,7 @@
       <c r="D280" s="3"/>
       <c r="E280" s="3"/>
     </row>
-    <row r="281" spans="1:5" ht="12.75" customHeight="1">
+    <row r="281" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>360</v>
       </c>
@@ -5260,7 +5304,7 @@
       <c r="D281" s="3"/>
       <c r="E281" s="3"/>
     </row>
-    <row r="282" spans="1:5" ht="12.75" customHeight="1">
+    <row r="282" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>361</v>
       </c>
@@ -5269,7 +5313,7 @@
       <c r="D282" s="3"/>
       <c r="E282" s="3"/>
     </row>
-    <row r="283" spans="1:5" ht="12.75" customHeight="1">
+    <row r="283" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>362</v>
       </c>
@@ -5278,7 +5322,7 @@
       <c r="D283" s="3"/>
       <c r="E283" s="3"/>
     </row>
-    <row r="284" spans="1:5" ht="12.75" customHeight="1">
+    <row r="284" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>363</v>
       </c>
@@ -5287,7 +5331,7 @@
       <c r="D284" s="3"/>
       <c r="E284" s="3"/>
     </row>
-    <row r="285" spans="1:5" ht="12.75" customHeight="1">
+    <row r="285" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>364</v>
       </c>
@@ -5296,7 +5340,7 @@
       <c r="D285" s="3"/>
       <c r="E285" s="3"/>
     </row>
-    <row r="286" spans="1:5" ht="12.75" customHeight="1">
+    <row r="286" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>365</v>
       </c>
@@ -5305,7 +5349,7 @@
       <c r="D286" s="3"/>
       <c r="E286" s="3"/>
     </row>
-    <row r="287" spans="1:5" ht="12.75" customHeight="1">
+    <row r="287" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>366</v>
       </c>
@@ -5314,7 +5358,7 @@
       <c r="D287" s="3"/>
       <c r="E287" s="3"/>
     </row>
-    <row r="288" spans="1:5" ht="12.75" customHeight="1">
+    <row r="288" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>367</v>
       </c>
@@ -5323,7 +5367,7 @@
       <c r="D288" s="3"/>
       <c r="E288" s="3"/>
     </row>
-    <row r="289" spans="1:5" ht="12.75" customHeight="1">
+    <row r="289" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>368</v>
       </c>
@@ -5332,7 +5376,7 @@
       <c r="D289" s="3"/>
       <c r="E289" s="3"/>
     </row>
-    <row r="290" spans="1:5" ht="12.75" customHeight="1">
+    <row r="290" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>369</v>
       </c>
@@ -5341,7 +5385,7 @@
       <c r="D290" s="3"/>
       <c r="E290" s="3"/>
     </row>
-    <row r="291" spans="1:5" ht="12.75" customHeight="1">
+    <row r="291" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>370</v>
       </c>
@@ -5350,7 +5394,7 @@
       <c r="D291" s="3"/>
       <c r="E291" s="3"/>
     </row>
-    <row r="292" spans="1:5" ht="12.75" customHeight="1">
+    <row r="292" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>371</v>
       </c>
@@ -5359,7 +5403,7 @@
       <c r="D292" s="3"/>
       <c r="E292" s="3"/>
     </row>
-    <row r="293" spans="1:5" ht="12.75" customHeight="1">
+    <row r="293" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>372</v>
       </c>
@@ -5368,7 +5412,7 @@
       <c r="D293" s="3"/>
       <c r="E293" s="3"/>
     </row>
-    <row r="294" spans="1:5" ht="12.75" customHeight="1">
+    <row r="294" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>373</v>
       </c>
@@ -5377,7 +5421,7 @@
       <c r="D294" s="3"/>
       <c r="E294" s="3"/>
     </row>
-    <row r="295" spans="1:5" ht="12.75" customHeight="1">
+    <row r="295" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>374</v>
       </c>
@@ -5386,7 +5430,7 @@
       <c r="D295" s="3"/>
       <c r="E295" s="3"/>
     </row>
-    <row r="296" spans="1:5" ht="12.75" customHeight="1">
+    <row r="296" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>375</v>
       </c>
@@ -5395,7 +5439,7 @@
       <c r="D296" s="3"/>
       <c r="E296" s="3"/>
     </row>
-    <row r="297" spans="1:5" ht="12.75" customHeight="1">
+    <row r="297" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>376</v>
       </c>
@@ -5404,7 +5448,7 @@
       <c r="D297" s="3"/>
       <c r="E297" s="3"/>
     </row>
-    <row r="298" spans="1:5" ht="12.75" customHeight="1">
+    <row r="298" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>377</v>
       </c>
@@ -5413,7 +5457,7 @@
       <c r="D298" s="3"/>
       <c r="E298" s="3"/>
     </row>
-    <row r="299" spans="1:5" ht="12.75" customHeight="1">
+    <row r="299" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>378</v>
       </c>
@@ -5422,7 +5466,7 @@
       <c r="D299" s="3"/>
       <c r="E299" s="3"/>
     </row>
-    <row r="300" spans="1:5" ht="12.75" customHeight="1">
+    <row r="300" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>379</v>
       </c>
@@ -5431,7 +5475,7 @@
       <c r="D300" s="3"/>
       <c r="E300" s="3"/>
     </row>
-    <row r="301" spans="1:5" ht="12.75" customHeight="1">
+    <row r="301" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>380</v>
       </c>
@@ -5440,7 +5484,7 @@
       <c r="D301" s="3"/>
       <c r="E301" s="3"/>
     </row>
-    <row r="302" spans="1:5" ht="12.75" customHeight="1">
+    <row r="302" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>381</v>
       </c>
@@ -5449,7 +5493,7 @@
       <c r="D302" s="3"/>
       <c r="E302" s="3"/>
     </row>
-    <row r="303" spans="1:5" ht="12.75" customHeight="1">
+    <row r="303" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>382</v>
       </c>
@@ -5458,7 +5502,7 @@
       <c r="D303" s="3"/>
       <c r="E303" s="3"/>
     </row>
-    <row r="304" spans="1:5" ht="12.75" customHeight="1">
+    <row r="304" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>383</v>
       </c>
@@ -5467,7 +5511,7 @@
       <c r="D304" s="3"/>
       <c r="E304" s="3"/>
     </row>
-    <row r="305" spans="1:5" ht="12.75" customHeight="1">
+    <row r="305" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>384</v>
       </c>
@@ -5476,7 +5520,7 @@
       <c r="D305" s="3"/>
       <c r="E305" s="3"/>
     </row>
-    <row r="306" spans="1:5" ht="12.75" customHeight="1">
+    <row r="306" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>385</v>
       </c>
@@ -5485,7 +5529,7 @@
       <c r="D306" s="3"/>
       <c r="E306" s="3"/>
     </row>
-    <row r="307" spans="1:5" ht="12.75" customHeight="1">
+    <row r="307" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>386</v>
       </c>
@@ -5494,7 +5538,7 @@
       <c r="D307" s="3"/>
       <c r="E307" s="3"/>
     </row>
-    <row r="308" spans="1:5" ht="12.75" customHeight="1">
+    <row r="308" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>387</v>
       </c>
@@ -5503,7 +5547,7 @@
       <c r="D308" s="3"/>
       <c r="E308" s="3"/>
     </row>
-    <row r="309" spans="1:5" ht="12.75" customHeight="1">
+    <row r="309" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>388</v>
       </c>
@@ -5512,7 +5556,7 @@
       <c r="D309" s="3"/>
       <c r="E309" s="3"/>
     </row>
-    <row r="310" spans="1:5" ht="12.75" customHeight="1">
+    <row r="310" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>389</v>
       </c>
@@ -5521,7 +5565,7 @@
       <c r="D310" s="3"/>
       <c r="E310" s="3"/>
     </row>
-    <row r="311" spans="1:5" ht="12.75" customHeight="1">
+    <row r="311" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>390</v>
       </c>
@@ -5530,7 +5574,7 @@
       <c r="D311" s="3"/>
       <c r="E311" s="3"/>
     </row>
-    <row r="312" spans="1:5" ht="12.75" customHeight="1">
+    <row r="312" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>391</v>
       </c>
@@ -5539,7 +5583,7 @@
       <c r="D312" s="3"/>
       <c r="E312" s="3"/>
     </row>
-    <row r="313" spans="1:5" ht="12.75" customHeight="1">
+    <row r="313" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>392</v>
       </c>
@@ -5548,7 +5592,7 @@
       <c r="D313" s="3"/>
       <c r="E313" s="3"/>
     </row>
-    <row r="314" spans="1:5" ht="12.75" customHeight="1">
+    <row r="314" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>393</v>
       </c>
@@ -5557,7 +5601,7 @@
       <c r="D314" s="3"/>
       <c r="E314" s="3"/>
     </row>
-    <row r="315" spans="1:5" ht="12.75" customHeight="1">
+    <row r="315" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>394</v>
       </c>
@@ -5566,7 +5610,7 @@
       <c r="D315" s="3"/>
       <c r="E315" s="3"/>
     </row>
-    <row r="316" spans="1:5" ht="12.75" customHeight="1">
+    <row r="316" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>395</v>
       </c>
@@ -5575,7 +5619,7 @@
       <c r="D316" s="3"/>
       <c r="E316" s="3"/>
     </row>
-    <row r="317" spans="1:5" ht="12.75" customHeight="1">
+    <row r="317" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>396</v>
       </c>
@@ -5584,7 +5628,7 @@
       <c r="D317" s="3"/>
       <c r="E317" s="3"/>
     </row>
-    <row r="318" spans="1:5" ht="12.75" customHeight="1">
+    <row r="318" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>397</v>
       </c>
@@ -5593,7 +5637,7 @@
       <c r="D318" s="3"/>
       <c r="E318" s="3"/>
     </row>
-    <row r="319" spans="1:5" ht="12.75" customHeight="1">
+    <row r="319" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>398</v>
       </c>
@@ -5602,7 +5646,7 @@
       <c r="D319" s="3"/>
       <c r="E319" s="3"/>
     </row>
-    <row r="320" spans="1:5" ht="12.75" customHeight="1">
+    <row r="320" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>399</v>
       </c>
@@ -5611,7 +5655,7 @@
       <c r="D320" s="3"/>
       <c r="E320" s="3"/>
     </row>
-    <row r="321" spans="1:5" ht="12.75" customHeight="1">
+    <row r="321" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>400</v>
       </c>
@@ -5620,7 +5664,7 @@
       <c r="D321" s="3"/>
       <c r="E321" s="3"/>
     </row>
-    <row r="322" spans="1:5" ht="12.75" customHeight="1">
+    <row r="322" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>401</v>
       </c>
@@ -5629,7 +5673,7 @@
       <c r="D322" s="3"/>
       <c r="E322" s="3"/>
     </row>
-    <row r="323" spans="1:5" ht="12.75" customHeight="1">
+    <row r="323" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>402</v>
       </c>
@@ -5638,7 +5682,7 @@
       <c r="D323" s="3"/>
       <c r="E323" s="3"/>
     </row>
-    <row r="324" spans="1:5" ht="12.75" customHeight="1">
+    <row r="324" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>403</v>
       </c>
@@ -5647,7 +5691,7 @@
       <c r="D324" s="3"/>
       <c r="E324" s="3"/>
     </row>
-    <row r="325" spans="1:5" ht="12.75" customHeight="1">
+    <row r="325" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>404</v>
       </c>
@@ -5656,7 +5700,7 @@
       <c r="D325" s="3"/>
       <c r="E325" s="3"/>
     </row>
-    <row r="326" spans="1:5" ht="12.75" customHeight="1">
+    <row r="326" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>405</v>
       </c>
@@ -5665,7 +5709,7 @@
       <c r="D326" s="3"/>
       <c r="E326" s="3"/>
     </row>
-    <row r="327" spans="1:5" ht="12.75" customHeight="1">
+    <row r="327" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>406</v>
       </c>
@@ -5674,7 +5718,7 @@
       <c r="D327" s="3"/>
       <c r="E327" s="3"/>
     </row>
-    <row r="328" spans="1:5" ht="12.75" customHeight="1">
+    <row r="328" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>407</v>
       </c>
@@ -5683,7 +5727,7 @@
       <c r="D328" s="3"/>
       <c r="E328" s="3"/>
     </row>
-    <row r="329" spans="1:5" ht="12.75" customHeight="1">
+    <row r="329" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>408</v>
       </c>
@@ -5692,7 +5736,7 @@
       <c r="D329" s="3"/>
       <c r="E329" s="3"/>
     </row>
-    <row r="330" spans="1:5" ht="12.75" customHeight="1">
+    <row r="330" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>409</v>
       </c>
@@ -5701,7 +5745,7 @@
       <c r="D330" s="3"/>
       <c r="E330" s="3"/>
     </row>
-    <row r="331" spans="1:5" ht="12.75" customHeight="1">
+    <row r="331" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>410</v>
       </c>
@@ -5710,7 +5754,7 @@
       <c r="D331" s="3"/>
       <c r="E331" s="3"/>
     </row>
-    <row r="332" spans="1:5" ht="12.75" customHeight="1">
+    <row r="332" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>411</v>
       </c>
@@ -5719,7 +5763,7 @@
       <c r="D332" s="3"/>
       <c r="E332" s="3"/>
     </row>
-    <row r="333" spans="1:5" ht="12.75" customHeight="1">
+    <row r="333" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>412</v>
       </c>
@@ -5728,7 +5772,7 @@
       <c r="D333" s="3"/>
       <c r="E333" s="3"/>
     </row>
-    <row r="334" spans="1:5" ht="12.75" customHeight="1">
+    <row r="334" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>413</v>
       </c>
@@ -5737,7 +5781,7 @@
       <c r="D334" s="3"/>
       <c r="E334" s="3"/>
     </row>
-    <row r="335" spans="1:5" ht="12.75" customHeight="1">
+    <row r="335" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>414</v>
       </c>
@@ -5746,7 +5790,7 @@
       <c r="D335" s="3"/>
       <c r="E335" s="3"/>
     </row>
-    <row r="336" spans="1:5" ht="12.75" customHeight="1">
+    <row r="336" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>415</v>
       </c>
@@ -5755,7 +5799,7 @@
       <c r="D336" s="3"/>
       <c r="E336" s="3"/>
     </row>
-    <row r="337" spans="1:5" ht="12.75" customHeight="1">
+    <row r="337" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>416</v>
       </c>
@@ -5764,7 +5808,7 @@
       <c r="D337" s="3"/>
       <c r="E337" s="3"/>
     </row>
-    <row r="338" spans="1:5" ht="12.75" customHeight="1">
+    <row r="338" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>417</v>
       </c>
@@ -5773,7 +5817,7 @@
       <c r="D338" s="3"/>
       <c r="E338" s="3"/>
     </row>
-    <row r="339" spans="1:5" ht="12.75" customHeight="1">
+    <row r="339" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>418</v>
       </c>
@@ -5782,7 +5826,7 @@
       <c r="D339" s="3"/>
       <c r="E339" s="3"/>
     </row>
-    <row r="340" spans="1:5" ht="12.75" customHeight="1">
+    <row r="340" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>419</v>
       </c>
@@ -5791,7 +5835,7 @@
       <c r="D340" s="3"/>
       <c r="E340" s="3"/>
     </row>
-    <row r="341" spans="1:5" ht="12.75" customHeight="1">
+    <row r="341" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
         <v>420</v>
       </c>
@@ -5800,7 +5844,7 @@
       <c r="D341" s="3"/>
       <c r="E341" s="3"/>
     </row>
-    <row r="342" spans="1:5" ht="12.75" customHeight="1">
+    <row r="342" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>421</v>
       </c>
@@ -5809,7 +5853,7 @@
       <c r="D342" s="3"/>
       <c r="E342" s="3"/>
     </row>
-    <row r="343" spans="1:5" ht="12.75" customHeight="1">
+    <row r="343" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
         <v>422</v>
       </c>
@@ -5818,7 +5862,7 @@
       <c r="D343" s="3"/>
       <c r="E343" s="3"/>
     </row>
-    <row r="344" spans="1:5" ht="12.75" customHeight="1">
+    <row r="344" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>423</v>
       </c>
@@ -5827,7 +5871,7 @@
       <c r="D344" s="3"/>
       <c r="E344" s="3"/>
     </row>
-    <row r="345" spans="1:5" ht="12.75" customHeight="1">
+    <row r="345" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>424</v>
       </c>
@@ -5836,7 +5880,7 @@
       <c r="D345" s="3"/>
       <c r="E345" s="3"/>
     </row>
-    <row r="346" spans="1:5" ht="12.75" customHeight="1">
+    <row r="346" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>425</v>
       </c>
@@ -5845,7 +5889,7 @@
       <c r="D346" s="3"/>
       <c r="E346" s="3"/>
     </row>
-    <row r="347" spans="1:5" ht="12.75" customHeight="1">
+    <row r="347" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>426</v>
       </c>
@@ -5854,7 +5898,7 @@
       <c r="D347" s="3"/>
       <c r="E347" s="3"/>
     </row>
-    <row r="348" spans="1:5" ht="12.75" customHeight="1">
+    <row r="348" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>427</v>
       </c>
@@ -5863,7 +5907,7 @@
       <c r="D348" s="3"/>
       <c r="E348" s="3"/>
     </row>
-    <row r="349" spans="1:5" ht="12.75" customHeight="1">
+    <row r="349" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>428</v>
       </c>
@@ -5872,7 +5916,7 @@
       <c r="D349" s="3"/>
       <c r="E349" s="3"/>
     </row>
-    <row r="350" spans="1:5" ht="12.75" customHeight="1">
+    <row r="350" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
         <v>429</v>
       </c>
@@ -5881,7 +5925,7 @@
       <c r="D350" s="3"/>
       <c r="E350" s="3"/>
     </row>
-    <row r="351" spans="1:5" ht="12.75" customHeight="1">
+    <row r="351" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
         <v>430</v>
       </c>
@@ -5890,7 +5934,7 @@
       <c r="D351" s="3"/>
       <c r="E351" s="3"/>
     </row>
-    <row r="352" spans="1:5" ht="12.75" customHeight="1">
+    <row r="352" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
         <v>431</v>
       </c>
@@ -5899,7 +5943,7 @@
       <c r="D352" s="3"/>
       <c r="E352" s="3"/>
     </row>
-    <row r="353" spans="1:5" ht="12.75" customHeight="1">
+    <row r="353" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
         <v>432</v>
       </c>
@@ -5908,7 +5952,7 @@
       <c r="D353" s="3"/>
       <c r="E353" s="3"/>
     </row>
-    <row r="354" spans="1:5" ht="12.75" customHeight="1">
+    <row r="354" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
         <v>433</v>
       </c>
@@ -5917,7 +5961,7 @@
       <c r="D354" s="3"/>
       <c r="E354" s="3"/>
     </row>
-    <row r="355" spans="1:5" ht="12.75" customHeight="1">
+    <row r="355" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
         <v>434</v>
       </c>
@@ -5926,7 +5970,7 @@
       <c r="D355" s="3"/>
       <c r="E355" s="3"/>
     </row>
-    <row r="356" spans="1:5" ht="12.75" customHeight="1">
+    <row r="356" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>435</v>
       </c>
@@ -5935,7 +5979,7 @@
       <c r="D356" s="3"/>
       <c r="E356" s="3"/>
     </row>
-    <row r="357" spans="1:5" ht="12.75" customHeight="1">
+    <row r="357" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
         <v>436</v>
       </c>
@@ -5944,7 +5988,7 @@
       <c r="D357" s="3"/>
       <c r="E357" s="3"/>
     </row>
-    <row r="358" spans="1:5" ht="12.75" customHeight="1">
+    <row r="358" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>437</v>
       </c>
@@ -5953,7 +5997,7 @@
       <c r="D358" s="3"/>
       <c r="E358" s="3"/>
     </row>
-    <row r="359" spans="1:5" ht="12.75" customHeight="1">
+    <row r="359" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>438</v>
       </c>
@@ -5962,7 +6006,7 @@
       <c r="D359" s="3"/>
       <c r="E359" s="3"/>
     </row>
-    <row r="360" spans="1:5" ht="12.75" customHeight="1">
+    <row r="360" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
         <v>439</v>
       </c>
@@ -5971,7 +6015,7 @@
       <c r="D360" s="3"/>
       <c r="E360" s="3"/>
     </row>
-    <row r="361" spans="1:5" ht="12.75" customHeight="1">
+    <row r="361" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
         <v>440</v>
       </c>
@@ -5980,7 +6024,7 @@
       <c r="D361" s="3"/>
       <c r="E361" s="3"/>
     </row>
-    <row r="362" spans="1:5" ht="12.75" customHeight="1">
+    <row r="362" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
         <v>441</v>
       </c>
@@ -5989,7 +6033,7 @@
       <c r="D362" s="3"/>
       <c r="E362" s="3"/>
     </row>
-    <row r="363" spans="1:5" ht="12.75" customHeight="1">
+    <row r="363" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
         <v>442</v>
       </c>
@@ -5998,7 +6042,7 @@
       <c r="D363" s="3"/>
       <c r="E363" s="3"/>
     </row>
-    <row r="364" spans="1:5" ht="12.75" customHeight="1">
+    <row r="364" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
         <v>443</v>
       </c>
@@ -6007,7 +6051,7 @@
       <c r="D364" s="3"/>
       <c r="E364" s="3"/>
     </row>
-    <row r="365" spans="1:5" ht="12.75" customHeight="1">
+    <row r="365" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>444</v>
       </c>
@@ -6016,7 +6060,7 @@
       <c r="D365" s="3"/>
       <c r="E365" s="3"/>
     </row>
-    <row r="366" spans="1:5" ht="12.75" customHeight="1">
+    <row r="366" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
         <v>445</v>
       </c>
@@ -6025,7 +6069,7 @@
       <c r="D366" s="3"/>
       <c r="E366" s="3"/>
     </row>
-    <row r="367" spans="1:5" ht="12.75" customHeight="1">
+    <row r="367" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>446</v>
       </c>
@@ -6034,7 +6078,7 @@
       <c r="D367" s="3"/>
       <c r="E367" s="3"/>
     </row>
-    <row r="368" spans="1:5" ht="12.75" customHeight="1">
+    <row r="368" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
         <v>447</v>
       </c>
@@ -6043,7 +6087,7 @@
       <c r="D368" s="3"/>
       <c r="E368" s="3"/>
     </row>
-    <row r="369" spans="1:5" ht="12.75" customHeight="1">
+    <row r="369" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
         <v>448</v>
       </c>
@@ -6052,7 +6096,7 @@
       <c r="D369" s="3"/>
       <c r="E369" s="3"/>
     </row>
-    <row r="370" spans="1:5" ht="12.75" customHeight="1">
+    <row r="370" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
         <v>449</v>
       </c>
@@ -6061,7 +6105,7 @@
       <c r="D370" s="3"/>
       <c r="E370" s="3"/>
     </row>
-    <row r="371" spans="1:5" ht="12.75" customHeight="1">
+    <row r="371" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
         <v>450</v>
       </c>
@@ -6070,7 +6114,7 @@
       <c r="D371" s="3"/>
       <c r="E371" s="3"/>
     </row>
-    <row r="372" spans="1:5" ht="12.75" customHeight="1">
+    <row r="372" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
         <v>451</v>
       </c>
@@ -6079,7 +6123,7 @@
       <c r="D372" s="3"/>
       <c r="E372" s="3"/>
     </row>
-    <row r="373" spans="1:5" ht="12.75" customHeight="1">
+    <row r="373" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
         <v>452</v>
       </c>
@@ -6088,7 +6132,7 @@
       <c r="D373" s="3"/>
       <c r="E373" s="3"/>
     </row>
-    <row r="374" spans="1:5" ht="12.75" customHeight="1">
+    <row r="374" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
         <v>453</v>
       </c>
@@ -6097,7 +6141,7 @@
       <c r="D374" s="3"/>
       <c r="E374" s="3"/>
     </row>
-    <row r="375" spans="1:5" ht="12.75" customHeight="1">
+    <row r="375" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
         <v>454</v>
       </c>
@@ -6106,7 +6150,7 @@
       <c r="D375" s="3"/>
       <c r="E375" s="3"/>
     </row>
-    <row r="376" spans="1:5" ht="12.75" customHeight="1">
+    <row r="376" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
         <v>455</v>
       </c>
@@ -6115,7 +6159,7 @@
       <c r="D376" s="3"/>
       <c r="E376" s="3"/>
     </row>
-    <row r="377" spans="1:5" ht="12.75" customHeight="1">
+    <row r="377" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
         <v>456</v>
       </c>
@@ -6124,7 +6168,7 @@
       <c r="D377" s="3"/>
       <c r="E377" s="3"/>
     </row>
-    <row r="378" spans="1:5" ht="12.75" customHeight="1">
+    <row r="378" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
         <v>457</v>
       </c>
@@ -6133,7 +6177,7 @@
       <c r="D378" s="3"/>
       <c r="E378" s="3"/>
     </row>
-    <row r="379" spans="1:5" ht="12.75" customHeight="1">
+    <row r="379" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
         <v>458</v>
       </c>
@@ -6142,7 +6186,7 @@
       <c r="D379" s="3"/>
       <c r="E379" s="3"/>
     </row>
-    <row r="380" spans="1:5" ht="12.75" customHeight="1">
+    <row r="380" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
         <v>459</v>
       </c>
@@ -6151,7 +6195,7 @@
       <c r="D380" s="3"/>
       <c r="E380" s="3"/>
     </row>
-    <row r="381" spans="1:5" ht="12.75" customHeight="1">
+    <row r="381" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
         <v>460</v>
       </c>
@@ -6160,7 +6204,7 @@
       <c r="D381" s="3"/>
       <c r="E381" s="3"/>
     </row>
-    <row r="382" spans="1:5" ht="12.75" customHeight="1">
+    <row r="382" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
         <v>461</v>
       </c>
@@ -6169,7 +6213,7 @@
       <c r="D382" s="3"/>
       <c r="E382" s="3"/>
     </row>
-    <row r="383" spans="1:5" ht="12.75" customHeight="1">
+    <row r="383" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
         <v>462</v>
       </c>
@@ -6178,7 +6222,7 @@
       <c r="D383" s="3"/>
       <c r="E383" s="3"/>
     </row>
-    <row r="384" spans="1:5" ht="12.75" customHeight="1">
+    <row r="384" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
         <v>463</v>
       </c>
@@ -6187,7 +6231,7 @@
       <c r="D384" s="3"/>
       <c r="E384" s="3"/>
     </row>
-    <row r="385" spans="1:5" ht="12.75" customHeight="1">
+    <row r="385" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
         <v>464</v>
       </c>
@@ -6196,7 +6240,7 @@
       <c r="D385" s="3"/>
       <c r="E385" s="3"/>
     </row>
-    <row r="386" spans="1:5" ht="12.75" customHeight="1">
+    <row r="386" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
         <v>465</v>
       </c>
@@ -6205,7 +6249,7 @@
       <c r="D386" s="3"/>
       <c r="E386" s="3"/>
     </row>
-    <row r="387" spans="1:5" ht="12.75" customHeight="1">
+    <row r="387" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
         <v>466</v>
       </c>
@@ -6214,7 +6258,7 @@
       <c r="D387" s="3"/>
       <c r="E387" s="3"/>
     </row>
-    <row r="388" spans="1:5" ht="12.75" customHeight="1">
+    <row r="388" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
         <v>467</v>
       </c>
@@ -6223,7 +6267,7 @@
       <c r="D388" s="3"/>
       <c r="E388" s="3"/>
     </row>
-    <row r="389" spans="1:5" ht="12.75" customHeight="1">
+    <row r="389" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
         <v>468</v>
       </c>
@@ -6232,7 +6276,7 @@
       <c r="D389" s="3"/>
       <c r="E389" s="3"/>
     </row>
-    <row r="390" spans="1:5" ht="12.75" customHeight="1">
+    <row r="390" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
         <v>469</v>
       </c>
@@ -6241,7 +6285,7 @@
       <c r="D390" s="3"/>
       <c r="E390" s="3"/>
     </row>
-    <row r="391" spans="1:5" ht="12.75" customHeight="1">
+    <row r="391" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
         <v>470</v>
       </c>
@@ -6250,7 +6294,7 @@
       <c r="D391" s="3"/>
       <c r="E391" s="3"/>
     </row>
-    <row r="392" spans="1:5" ht="12.75" customHeight="1">
+    <row r="392" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
         <v>471</v>
       </c>
@@ -6259,7 +6303,7 @@
       <c r="D392" s="3"/>
       <c r="E392" s="3"/>
     </row>
-    <row r="393" spans="1:5" ht="12.75" customHeight="1">
+    <row r="393" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
         <v>472</v>
       </c>
@@ -6268,7 +6312,7 @@
       <c r="D393" s="3"/>
       <c r="E393" s="3"/>
     </row>
-    <row r="394" spans="1:5" ht="12.75" customHeight="1">
+    <row r="394" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
         <v>473</v>
       </c>
@@ -6277,7 +6321,7 @@
       <c r="D394" s="3"/>
       <c r="E394" s="3"/>
     </row>
-    <row r="395" spans="1:5" ht="12.75" customHeight="1">
+    <row r="395" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
         <v>474</v>
       </c>
@@ -6286,7 +6330,7 @@
       <c r="D395" s="3"/>
       <c r="E395" s="3"/>
     </row>
-    <row r="396" spans="1:5" ht="12.75" customHeight="1">
+    <row r="396" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
         <v>475</v>
       </c>
@@ -6295,7 +6339,7 @@
       <c r="D396" s="3"/>
       <c r="E396" s="3"/>
     </row>
-    <row r="397" spans="1:5" ht="12.75" customHeight="1">
+    <row r="397" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
         <v>476</v>
       </c>
@@ -6304,7 +6348,7 @@
       <c r="D397" s="3"/>
       <c r="E397" s="3"/>
     </row>
-    <row r="398" spans="1:5" ht="12.75" customHeight="1">
+    <row r="398" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
         <v>477</v>
       </c>
@@ -6313,7 +6357,7 @@
       <c r="D398" s="3"/>
       <c r="E398" s="3"/>
     </row>
-    <row r="399" spans="1:5" ht="12.75" customHeight="1">
+    <row r="399" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
         <v>478</v>
       </c>
@@ -6322,7 +6366,7 @@
       <c r="D399" s="3"/>
       <c r="E399" s="3"/>
     </row>
-    <row r="400" spans="1:5" ht="12.75" customHeight="1">
+    <row r="400" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
         <v>479</v>
       </c>
@@ -6331,7 +6375,7 @@
       <c r="D400" s="3"/>
       <c r="E400" s="3"/>
     </row>
-    <row r="401" spans="1:5" ht="12.75" customHeight="1">
+    <row r="401" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
         <v>480</v>
       </c>
@@ -6340,7 +6384,7 @@
       <c r="D401" s="3"/>
       <c r="E401" s="3"/>
     </row>
-    <row r="402" spans="1:5" ht="12.75" customHeight="1">
+    <row r="402" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
         <v>481</v>
       </c>
@@ -6349,7 +6393,7 @@
       <c r="D402" s="3"/>
       <c r="E402" s="3"/>
     </row>
-    <row r="403" spans="1:5" ht="12.75" customHeight="1">
+    <row r="403" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
         <v>482</v>
       </c>
@@ -6358,7 +6402,7 @@
       <c r="D403" s="3"/>
       <c r="E403" s="3"/>
     </row>
-    <row r="404" spans="1:5" ht="12.75" customHeight="1">
+    <row r="404" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
         <v>483</v>
       </c>
@@ -6367,7 +6411,7 @@
       <c r="D404" s="3"/>
       <c r="E404" s="3"/>
     </row>
-    <row r="405" spans="1:5" ht="12.75" customHeight="1">
+    <row r="405" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
         <v>484</v>
       </c>
@@ -6376,7 +6420,7 @@
       <c r="D405" s="3"/>
       <c r="E405" s="3"/>
     </row>
-    <row r="406" spans="1:5" ht="12.75" customHeight="1">
+    <row r="406" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
         <v>485</v>
       </c>
@@ -6385,7 +6429,7 @@
       <c r="D406" s="3"/>
       <c r="E406" s="3"/>
     </row>
-    <row r="407" spans="1:5" ht="12.75" customHeight="1">
+    <row r="407" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
         <v>486</v>
       </c>
@@ -6394,7 +6438,7 @@
       <c r="D407" s="3"/>
       <c r="E407" s="3"/>
     </row>
-    <row r="408" spans="1:5" ht="12.75" customHeight="1">
+    <row r="408" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
         <v>487</v>
       </c>
@@ -6403,7 +6447,7 @@
       <c r="D408" s="3"/>
       <c r="E408" s="3"/>
     </row>
-    <row r="409" spans="1:5" ht="12.75" customHeight="1">
+    <row r="409" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
         <v>488</v>
       </c>
@@ -6412,7 +6456,7 @@
       <c r="D409" s="3"/>
       <c r="E409" s="3"/>
     </row>
-    <row r="410" spans="1:5" ht="12.75" customHeight="1">
+    <row r="410" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
         <v>489</v>
       </c>
@@ -6421,7 +6465,7 @@
       <c r="D410" s="3"/>
       <c r="E410" s="3"/>
     </row>
-    <row r="411" spans="1:5" ht="12.75" customHeight="1">
+    <row r="411" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
         <v>490</v>
       </c>
@@ -6430,7 +6474,7 @@
       <c r="D411" s="3"/>
       <c r="E411" s="3"/>
     </row>
-    <row r="412" spans="1:5" ht="12.75" customHeight="1">
+    <row r="412" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
         <v>491</v>
       </c>
@@ -6439,7 +6483,7 @@
       <c r="D412" s="3"/>
       <c r="E412" s="3"/>
     </row>
-    <row r="413" spans="1:5" ht="12.75" customHeight="1">
+    <row r="413" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
         <v>492</v>
       </c>
@@ -6448,7 +6492,7 @@
       <c r="D413" s="3"/>
       <c r="E413" s="3"/>
     </row>
-    <row r="414" spans="1:5" ht="12.75" customHeight="1">
+    <row r="414" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
         <v>493</v>
       </c>
@@ -6457,7 +6501,7 @@
       <c r="D414" s="3"/>
       <c r="E414" s="3"/>
     </row>
-    <row r="415" spans="1:5" ht="12.75" customHeight="1">
+    <row r="415" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
         <v>494</v>
       </c>
@@ -6466,7 +6510,7 @@
       <c r="D415" s="3"/>
       <c r="E415" s="3"/>
     </row>
-    <row r="416" spans="1:5" ht="12.75" customHeight="1">
+    <row r="416" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
         <v>495</v>
       </c>
@@ -6475,7 +6519,7 @@
       <c r="D416" s="3"/>
       <c r="E416" s="3"/>
     </row>
-    <row r="417" spans="1:5" ht="12.75" customHeight="1">
+    <row r="417" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
         <v>496</v>
       </c>
@@ -6484,7 +6528,7 @@
       <c r="D417" s="3"/>
       <c r="E417" s="3"/>
     </row>
-    <row r="418" spans="1:5" ht="12.75" customHeight="1">
+    <row r="418" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
         <v>497</v>
       </c>
@@ -6493,7 +6537,7 @@
       <c r="D418" s="3"/>
       <c r="E418" s="3"/>
     </row>
-    <row r="419" spans="1:5" ht="12.75" customHeight="1">
+    <row r="419" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
         <v>498</v>
       </c>
@@ -6502,7 +6546,7 @@
       <c r="D419" s="3"/>
       <c r="E419" s="3"/>
     </row>
-    <row r="420" spans="1:5" ht="12.75" customHeight="1">
+    <row r="420" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
         <v>499</v>
       </c>
@@ -6511,7 +6555,7 @@
       <c r="D420" s="3"/>
       <c r="E420" s="3"/>
     </row>
-    <row r="421" spans="1:5" ht="12.75" customHeight="1">
+    <row r="421" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
         <v>500</v>
       </c>
@@ -6520,7 +6564,7 @@
       <c r="D421" s="3"/>
       <c r="E421" s="3"/>
     </row>
-    <row r="422" spans="1:5" ht="12.75" customHeight="1">
+    <row r="422" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
         <v>501</v>
       </c>
@@ -6529,7 +6573,7 @@
       <c r="D422" s="3"/>
       <c r="E422" s="3"/>
     </row>
-    <row r="423" spans="1:5" ht="12.75" customHeight="1">
+    <row r="423" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
         <v>502</v>
       </c>
@@ -6538,7 +6582,7 @@
       <c r="D423" s="3"/>
       <c r="E423" s="3"/>
     </row>
-    <row r="424" spans="1:5" ht="12.75" customHeight="1">
+    <row r="424" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
         <v>503</v>
       </c>
@@ -6547,7 +6591,7 @@
       <c r="D424" s="3"/>
       <c r="E424" s="3"/>
     </row>
-    <row r="425" spans="1:5" ht="12.75" customHeight="1">
+    <row r="425" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
         <v>504</v>
       </c>
@@ -6556,7 +6600,7 @@
       <c r="D425" s="3"/>
       <c r="E425" s="3"/>
     </row>
-    <row r="426" spans="1:5" ht="12.75" customHeight="1">
+    <row r="426" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
         <v>505</v>
       </c>
@@ -6565,7 +6609,7 @@
       <c r="D426" s="3"/>
       <c r="E426" s="3"/>
     </row>
-    <row r="427" spans="1:5" ht="12.75" customHeight="1">
+    <row r="427" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
         <v>506</v>
       </c>
@@ -6574,7 +6618,7 @@
       <c r="D427" s="3"/>
       <c r="E427" s="3"/>
     </row>
-    <row r="428" spans="1:5" ht="12.75" customHeight="1">
+    <row r="428" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
         <v>507</v>
       </c>
@@ -6583,7 +6627,7 @@
       <c r="D428" s="3"/>
       <c r="E428" s="3"/>
     </row>
-    <row r="429" spans="1:5" ht="12.75" customHeight="1">
+    <row r="429" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
         <v>508</v>
       </c>
@@ -6592,7 +6636,7 @@
       <c r="D429" s="3"/>
       <c r="E429" s="3"/>
     </row>
-    <row r="430" spans="1:5" ht="12.75" customHeight="1">
+    <row r="430" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
         <v>509</v>
       </c>
@@ -6601,7 +6645,7 @@
       <c r="D430" s="3"/>
       <c r="E430" s="3"/>
     </row>
-    <row r="431" spans="1:5" ht="12.75" customHeight="1">
+    <row r="431" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
         <v>510</v>
       </c>
@@ -6610,7 +6654,7 @@
       <c r="D431" s="3"/>
       <c r="E431" s="3"/>
     </row>
-    <row r="432" spans="1:5" ht="12.75" customHeight="1">
+    <row r="432" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
         <v>511</v>
       </c>
@@ -6619,7 +6663,7 @@
       <c r="D432" s="3"/>
       <c r="E432" s="3"/>
     </row>
-    <row r="433" spans="1:5" ht="12.75" customHeight="1">
+    <row r="433" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
         <v>512</v>
       </c>
@@ -6628,7 +6672,7 @@
       <c r="D433" s="3"/>
       <c r="E433" s="3"/>
     </row>
-    <row r="434" spans="1:5" ht="12.75" customHeight="1">
+    <row r="434" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
         <v>513</v>
       </c>
@@ -6637,7 +6681,7 @@
       <c r="D434" s="3"/>
       <c r="E434" s="3"/>
     </row>
-    <row r="435" spans="1:5" ht="12.75" customHeight="1">
+    <row r="435" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
         <v>514</v>
       </c>
@@ -6646,7 +6690,7 @@
       <c r="D435" s="3"/>
       <c r="E435" s="3"/>
     </row>
-    <row r="436" spans="1:5" ht="12.75" customHeight="1">
+    <row r="436" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
         <v>515</v>
       </c>
@@ -6655,7 +6699,7 @@
       <c r="D436" s="3"/>
       <c r="E436" s="3"/>
     </row>
-    <row r="437" spans="1:5" ht="12.75" customHeight="1">
+    <row r="437" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
         <v>516</v>
       </c>
@@ -6664,7 +6708,7 @@
       <c r="D437" s="3"/>
       <c r="E437" s="3"/>
     </row>
-    <row r="438" spans="1:5" ht="12.75" customHeight="1">
+    <row r="438" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
         <v>517</v>
       </c>
@@ -6673,7 +6717,7 @@
       <c r="D438" s="3"/>
       <c r="E438" s="3"/>
     </row>
-    <row r="439" spans="1:5" ht="12.75" customHeight="1">
+    <row r="439" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
         <v>518</v>
       </c>
@@ -6682,7 +6726,7 @@
       <c r="D439" s="3"/>
       <c r="E439" s="3"/>
     </row>
-    <row r="440" spans="1:5" ht="12.75" customHeight="1">
+    <row r="440" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
         <v>519</v>
       </c>
@@ -6691,7 +6735,7 @@
       <c r="D440" s="3"/>
       <c r="E440" s="3"/>
     </row>
-    <row r="441" spans="1:5" ht="12.75" customHeight="1">
+    <row r="441" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
         <v>520</v>
       </c>
@@ -6700,7 +6744,7 @@
       <c r="D441" s="3"/>
       <c r="E441" s="3"/>
     </row>
-    <row r="442" spans="1:5" ht="12.75" customHeight="1">
+    <row r="442" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
         <v>521</v>
       </c>
@@ -6709,7 +6753,7 @@
       <c r="D442" s="3"/>
       <c r="E442" s="3"/>
     </row>
-    <row r="443" spans="1:5" ht="12.75" customHeight="1">
+    <row r="443" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
         <v>522</v>
       </c>
@@ -6718,7 +6762,7 @@
       <c r="D443" s="3"/>
       <c r="E443" s="3"/>
     </row>
-    <row r="444" spans="1:5" ht="12.75" customHeight="1">
+    <row r="444" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
         <v>523</v>
       </c>
@@ -6727,7 +6771,7 @@
       <c r="D444" s="3"/>
       <c r="E444" s="3"/>
     </row>
-    <row r="445" spans="1:5" ht="12.75" customHeight="1">
+    <row r="445" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
         <v>524</v>
       </c>
@@ -6736,7 +6780,7 @@
       <c r="D445" s="3"/>
       <c r="E445" s="3"/>
     </row>
-    <row r="446" spans="1:5" ht="12.75" customHeight="1">
+    <row r="446" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
         <v>525</v>
       </c>
@@ -6745,7 +6789,7 @@
       <c r="D446" s="3"/>
       <c r="E446" s="3"/>
     </row>
-    <row r="447" spans="1:5" ht="12.75" customHeight="1">
+    <row r="447" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
         <v>526</v>
       </c>
@@ -6754,7 +6798,7 @@
       <c r="D447" s="3"/>
       <c r="E447" s="3"/>
     </row>
-    <row r="448" spans="1:5" ht="12.75" customHeight="1">
+    <row r="448" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
         <v>527</v>
       </c>
@@ -6763,7 +6807,7 @@
       <c r="D448" s="3"/>
       <c r="E448" s="3"/>
     </row>
-    <row r="449" spans="1:5" ht="12.75" customHeight="1">
+    <row r="449" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
         <v>528</v>
       </c>
@@ -6772,7 +6816,7 @@
       <c r="D449" s="3"/>
       <c r="E449" s="3"/>
     </row>
-    <row r="450" spans="1:5" ht="12.75" customHeight="1">
+    <row r="450" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
         <v>529</v>
       </c>
@@ -6781,7 +6825,7 @@
       <c r="D450" s="3"/>
       <c r="E450" s="3"/>
     </row>
-    <row r="451" spans="1:5" ht="12.75" customHeight="1">
+    <row r="451" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
         <v>530</v>
       </c>
@@ -6790,7 +6834,7 @@
       <c r="D451" s="3"/>
       <c r="E451" s="3"/>
     </row>
-    <row r="452" spans="1:5" ht="12.75" customHeight="1">
+    <row r="452" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
         <v>531</v>
       </c>
@@ -6799,7 +6843,7 @@
       <c r="D452" s="3"/>
       <c r="E452" s="3"/>
     </row>
-    <row r="453" spans="1:5" ht="12.75" customHeight="1">
+    <row r="453" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
         <v>532</v>
       </c>
@@ -6808,7 +6852,7 @@
       <c r="D453" s="3"/>
       <c r="E453" s="3"/>
     </row>
-    <row r="454" spans="1:5" ht="12.75" customHeight="1">
+    <row r="454" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
         <v>533</v>
       </c>
@@ -6817,7 +6861,7 @@
       <c r="D454" s="3"/>
       <c r="E454" s="3"/>
     </row>
-    <row r="455" spans="1:5" ht="12.75" customHeight="1">
+    <row r="455" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
         <v>534</v>
       </c>
@@ -6826,7 +6870,7 @@
       <c r="D455" s="3"/>
       <c r="E455" s="3"/>
     </row>
-    <row r="456" spans="1:5" ht="12.75" customHeight="1">
+    <row r="456" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
         <v>535</v>
       </c>
@@ -6835,7 +6879,7 @@
       <c r="D456" s="3"/>
       <c r="E456" s="3"/>
     </row>
-    <row r="457" spans="1:5" ht="12.75" customHeight="1">
+    <row r="457" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
         <v>536</v>
       </c>
@@ -6844,7 +6888,7 @@
       <c r="D457" s="3"/>
       <c r="E457" s="3"/>
     </row>
-    <row r="458" spans="1:5" ht="12.75" customHeight="1">
+    <row r="458" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
         <v>537</v>
       </c>
@@ -6853,7 +6897,7 @@
       <c r="D458" s="3"/>
       <c r="E458" s="3"/>
     </row>
-    <row r="459" spans="1:5" ht="12.75" customHeight="1">
+    <row r="459" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
         <v>538</v>
       </c>
@@ -6862,7 +6906,7 @@
       <c r="D459" s="3"/>
       <c r="E459" s="3"/>
     </row>
-    <row r="460" spans="1:5" ht="12.75" customHeight="1">
+    <row r="460" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
         <v>539</v>
       </c>
@@ -6871,7 +6915,7 @@
       <c r="D460" s="3"/>
       <c r="E460" s="3"/>
     </row>
-    <row r="461" spans="1:5" ht="12.75" customHeight="1">
+    <row r="461" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
         <v>540</v>
       </c>
@@ -6880,7 +6924,7 @@
       <c r="D461" s="3"/>
       <c r="E461" s="3"/>
     </row>
-    <row r="462" spans="1:5" ht="12.75" customHeight="1">
+    <row r="462" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
         <v>541</v>
       </c>
@@ -6889,7 +6933,7 @@
       <c r="D462" s="3"/>
       <c r="E462" s="3"/>
     </row>
-    <row r="463" spans="1:5" ht="12.75" customHeight="1">
+    <row r="463" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
         <v>542</v>
       </c>
@@ -6898,7 +6942,7 @@
       <c r="D463" s="3"/>
       <c r="E463" s="3"/>
     </row>
-    <row r="464" spans="1:5" ht="12.75" customHeight="1">
+    <row r="464" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
         <v>543</v>
       </c>
@@ -6907,7 +6951,7 @@
       <c r="D464" s="3"/>
       <c r="E464" s="3"/>
     </row>
-    <row r="465" spans="1:5" ht="12.75" customHeight="1">
+    <row r="465" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
         <v>544</v>
       </c>
@@ -6916,7 +6960,7 @@
       <c r="D465" s="3"/>
       <c r="E465" s="3"/>
     </row>
-    <row r="466" spans="1:5" ht="12.75" customHeight="1">
+    <row r="466" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
         <v>545</v>
       </c>
@@ -6925,7 +6969,7 @@
       <c r="D466" s="3"/>
       <c r="E466" s="3"/>
     </row>
-    <row r="467" spans="1:5" ht="12.75" customHeight="1">
+    <row r="467" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
         <v>546</v>
       </c>
@@ -6934,7 +6978,7 @@
       <c r="D467" s="3"/>
       <c r="E467" s="3"/>
     </row>
-    <row r="468" spans="1:5" ht="12.75" customHeight="1">
+    <row r="468" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
         <v>547</v>
       </c>
@@ -6943,7 +6987,7 @@
       <c r="D468" s="3"/>
       <c r="E468" s="3"/>
     </row>
-    <row r="469" spans="1:5" ht="12.75" customHeight="1">
+    <row r="469" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="s">
         <v>548</v>
       </c>
@@ -6952,7 +6996,7 @@
       <c r="D469" s="3"/>
       <c r="E469" s="3"/>
     </row>
-    <row r="470" spans="1:5" ht="12.75" customHeight="1">
+    <row r="470" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="s">
         <v>549</v>
       </c>
@@ -6961,7 +7005,7 @@
       <c r="D470" s="3"/>
       <c r="E470" s="3"/>
     </row>
-    <row r="471" spans="1:5" ht="12.75" customHeight="1">
+    <row r="471" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
         <v>550</v>
       </c>
@@ -6970,7 +7014,7 @@
       <c r="D471" s="3"/>
       <c r="E471" s="3"/>
     </row>
-    <row r="472" spans="1:5" ht="12.75" customHeight="1">
+    <row r="472" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
         <v>551</v>
       </c>
@@ -6979,7 +7023,7 @@
       <c r="D472" s="3"/>
       <c r="E472" s="3"/>
     </row>
-    <row r="473" spans="1:5" ht="12.75" customHeight="1">
+    <row r="473" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
         <v>552</v>
       </c>
@@ -6988,7 +7032,7 @@
       <c r="D473" s="3"/>
       <c r="E473" s="3"/>
     </row>
-    <row r="474" spans="1:5" ht="12.75" customHeight="1">
+    <row r="474" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
         <v>553</v>
       </c>
@@ -6997,7 +7041,7 @@
       <c r="D474" s="3"/>
       <c r="E474" s="3"/>
     </row>
-    <row r="475" spans="1:5" ht="12.75" customHeight="1">
+    <row r="475" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="s">
         <v>554</v>
       </c>
@@ -7006,7 +7050,7 @@
       <c r="D475" s="3"/>
       <c r="E475" s="3"/>
     </row>
-    <row r="476" spans="1:5" ht="12.75" customHeight="1">
+    <row r="476" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="1" t="s">
         <v>555</v>
       </c>
@@ -7015,7 +7059,7 @@
       <c r="D476" s="3"/>
       <c r="E476" s="3"/>
     </row>
-    <row r="477" spans="1:5" ht="12.75" customHeight="1">
+    <row r="477" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="1" t="s">
         <v>556</v>
       </c>
@@ -7024,7 +7068,7 @@
       <c r="D477" s="3"/>
       <c r="E477" s="3"/>
     </row>
-    <row r="478" spans="1:5" ht="12.75" customHeight="1">
+    <row r="478" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="1" t="s">
         <v>557</v>
       </c>
@@ -7033,7 +7077,7 @@
       <c r="D478" s="3"/>
       <c r="E478" s="3"/>
     </row>
-    <row r="479" spans="1:5" ht="12.75" customHeight="1">
+    <row r="479" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="s">
         <v>558</v>
       </c>
@@ -7042,7 +7086,7 @@
       <c r="D479" s="3"/>
       <c r="E479" s="3"/>
     </row>
-    <row r="480" spans="1:5" ht="12.75" customHeight="1">
+    <row r="480" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="1" t="s">
         <v>559</v>
       </c>
@@ -7051,7 +7095,7 @@
       <c r="D480" s="3"/>
       <c r="E480" s="3"/>
     </row>
-    <row r="481" spans="1:5" ht="12.75" customHeight="1">
+    <row r="481" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="1" t="s">
         <v>560</v>
       </c>
@@ -7060,7 +7104,7 @@
       <c r="D481" s="3"/>
       <c r="E481" s="3"/>
     </row>
-    <row r="482" spans="1:5" ht="12.75" customHeight="1">
+    <row r="482" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="1" t="s">
         <v>561</v>
       </c>
@@ -7069,7 +7113,7 @@
       <c r="D482" s="3"/>
       <c r="E482" s="3"/>
     </row>
-    <row r="483" spans="1:5" ht="12.75" customHeight="1">
+    <row r="483" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="1" t="s">
         <v>562</v>
       </c>
@@ -7078,7 +7122,7 @@
       <c r="D483" s="3"/>
       <c r="E483" s="3"/>
     </row>
-    <row r="484" spans="1:5" ht="12.75" customHeight="1">
+    <row r="484" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="1" t="s">
         <v>563</v>
       </c>
@@ -7087,7 +7131,7 @@
       <c r="D484" s="3"/>
       <c r="E484" s="3"/>
     </row>
-    <row r="485" spans="1:5" ht="12.75" customHeight="1">
+    <row r="485" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="1" t="s">
         <v>564</v>
       </c>
@@ -7096,7 +7140,7 @@
       <c r="D485" s="3"/>
       <c r="E485" s="3"/>
     </row>
-    <row r="486" spans="1:5" ht="12.75" customHeight="1">
+    <row r="486" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="1" t="s">
         <v>565</v>
       </c>
@@ -7105,7 +7149,7 @@
       <c r="D486" s="3"/>
       <c r="E486" s="3"/>
     </row>
-    <row r="487" spans="1:5" ht="12.75" customHeight="1">
+    <row r="487" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="1" t="s">
         <v>566</v>
       </c>
@@ -7114,7 +7158,7 @@
       <c r="D487" s="3"/>
       <c r="E487" s="3"/>
     </row>
-    <row r="488" spans="1:5" ht="12.75" customHeight="1">
+    <row r="488" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="1" t="s">
         <v>567</v>
       </c>
@@ -7123,7 +7167,7 @@
       <c r="D488" s="3"/>
       <c r="E488" s="3"/>
     </row>
-    <row r="489" spans="1:5" ht="12.75" customHeight="1">
+    <row r="489" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="1" t="s">
         <v>568</v>
       </c>
@@ -7132,7 +7176,7 @@
       <c r="D489" s="3"/>
       <c r="E489" s="3"/>
     </row>
-    <row r="490" spans="1:5" ht="12.75" customHeight="1">
+    <row r="490" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="1" t="s">
         <v>569</v>
       </c>
@@ -7141,7 +7185,7 @@
       <c r="D490" s="3"/>
       <c r="E490" s="3"/>
     </row>
-    <row r="491" spans="1:5" ht="12.75" customHeight="1">
+    <row r="491" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="1" t="s">
         <v>570</v>
       </c>
@@ -7150,7 +7194,7 @@
       <c r="D491" s="3"/>
       <c r="E491" s="3"/>
     </row>
-    <row r="492" spans="1:5" ht="12.75" customHeight="1">
+    <row r="492" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="1" t="s">
         <v>571</v>
       </c>
@@ -7159,7 +7203,7 @@
       <c r="D492" s="3"/>
       <c r="E492" s="3"/>
     </row>
-    <row r="493" spans="1:5" ht="12.75" customHeight="1">
+    <row r="493" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="1" t="s">
         <v>572</v>
       </c>
@@ -7168,7 +7212,7 @@
       <c r="D493" s="3"/>
       <c r="E493" s="3"/>
     </row>
-    <row r="494" spans="1:5" ht="12.75" customHeight="1">
+    <row r="494" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="1" t="s">
         <v>573</v>
       </c>
@@ -7177,7 +7221,7 @@
       <c r="D494" s="3"/>
       <c r="E494" s="3"/>
     </row>
-    <row r="495" spans="1:5" ht="12.75" customHeight="1">
+    <row r="495" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="1" t="s">
         <v>574</v>
       </c>
@@ -7186,7 +7230,7 @@
       <c r="D495" s="3"/>
       <c r="E495" s="3"/>
     </row>
-    <row r="496" spans="1:5" ht="12.75" customHeight="1">
+    <row r="496" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="1" t="s">
         <v>575</v>
       </c>
@@ -7195,7 +7239,7 @@
       <c r="D496" s="3"/>
       <c r="E496" s="3"/>
     </row>
-    <row r="497" spans="1:5" ht="12.75" customHeight="1">
+    <row r="497" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="1" t="s">
         <v>576</v>
       </c>
@@ -7204,7 +7248,7 @@
       <c r="D497" s="3"/>
       <c r="E497" s="3"/>
     </row>
-    <row r="498" spans="1:5" ht="12.75" customHeight="1">
+    <row r="498" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="1" t="s">
         <v>577</v>
       </c>
@@ -7213,7 +7257,7 @@
       <c r="D498" s="3"/>
       <c r="E498" s="3"/>
     </row>
-    <row r="499" spans="1:5" ht="12.75" customHeight="1">
+    <row r="499" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="1" t="s">
         <v>578</v>
       </c>
@@ -7222,7 +7266,7 @@
       <c r="D499" s="3"/>
       <c r="E499" s="3"/>
     </row>
-    <row r="500" spans="1:5" ht="12.75" customHeight="1">
+    <row r="500" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="1" t="s">
         <v>579</v>
       </c>
@@ -7231,7 +7275,7 @@
       <c r="D500" s="3"/>
       <c r="E500" s="3"/>
     </row>
-    <row r="501" spans="1:5" ht="12.75" customHeight="1">
+    <row r="501" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="1" t="s">
         <v>580</v>
       </c>
